--- a/capiq_data/in_process_data/IQ260725.xlsx
+++ b/capiq_data/in_process_data/IQ260725.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30519EE0-E3E8-4632-9818-A17679AEB32E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826C03CF-6226-49C2-BF5A-61A6BE564323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"a1f6fbaa-c83a-479a-a537-d4f5065c43c2"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"155f5d02-feae-42f1-be3e-4db45a458eba"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
     <t>FQ22011</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ22021</t>
+  </si>
+  <si>
+    <t>FQ32021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>36950</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>55.866</v>
+        <v>54.911000000000001</v>
       </c>
       <c r="D2">
-        <v>936.56600000000003</v>
+        <v>536.72299999999996</v>
       </c>
       <c r="E2">
-        <v>402.35</v>
+        <v>246.66900000000001</v>
       </c>
       <c r="F2">
-        <v>390.64800000000002</v>
+        <v>219.916</v>
       </c>
       <c r="G2">
-        <v>1354.846</v>
+        <v>778.55799999999999</v>
       </c>
       <c r="H2">
-        <v>3928.2950000000001</v>
+        <v>1724.951</v>
       </c>
       <c r="I2">
-        <v>92.206000000000003</v>
+        <v>49.244</v>
       </c>
       <c r="J2">
-        <v>785.22199999999998</v>
+        <v>232.62100000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>468.79500000000002</v>
+        <v>229.685</v>
       </c>
       <c r="O2">
-        <v>1533.182</v>
+        <v>518.04700000000003</v>
       </c>
       <c r="P2">
-        <v>787.03899999999999</v>
+        <v>248.23</v>
       </c>
       <c r="Q2">
-        <v>-29.693000000000001</v>
+        <v>5.0030000000000001</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>36950</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2395.1129999999998</v>
+        <v>1206.904</v>
       </c>
       <c r="U2">
-        <v>260.95299999999997</v>
+        <v>39.179000000000002</v>
       </c>
       <c r="V2">
-        <v>73.930999999999997</v>
+        <v>68.245999999999995</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-72.760000000000005</v>
+        <v>-5.1449999999999996</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>51.573999999999998</v>
+        <v>8.8279999999999994</v>
       </c>
       <c r="AA2">
-        <v>55.866</v>
+        <v>54.91</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>37042</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>59.07</v>
+        <v>60.158000000000001</v>
       </c>
       <c r="D3">
-        <v>937.827</v>
+        <v>562.96600000000001</v>
       </c>
       <c r="E3">
-        <v>416.29500000000002</v>
+        <v>244.45</v>
       </c>
       <c r="F3">
-        <v>391.92099999999999</v>
+        <v>235.71</v>
       </c>
       <c r="G3">
-        <v>1322.9380000000001</v>
+        <v>819.67</v>
       </c>
       <c r="H3">
-        <v>3972.07</v>
+        <v>1752.2239999999999</v>
       </c>
       <c r="I3">
-        <v>101.935</v>
+        <v>42.494999999999997</v>
       </c>
       <c r="J3">
-        <v>806.447</v>
+        <v>220.94</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>391.63600000000002</v>
+        <v>250.90299999999999</v>
       </c>
       <c r="O3">
-        <v>1499.1279999999999</v>
+        <v>520.90899999999999</v>
       </c>
       <c r="P3">
-        <v>808.07799999999997</v>
+        <v>241.54499999999999</v>
       </c>
       <c r="Q3">
-        <v>-76.221999999999994</v>
+        <v>34.545000000000002</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>37042</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>24193</v>
       </c>
       <c r="T3">
-        <v>2472.942</v>
+        <v>1231.3150000000001</v>
       </c>
       <c r="U3">
-        <v>184.73099999999999</v>
+        <v>73.724000000000004</v>
       </c>
       <c r="V3">
-        <v>98.725999999999999</v>
+        <v>99.408000000000001</v>
       </c>
       <c r="W3">
-        <v>-71.811999999999998</v>
+        <v>-37.173000000000002</v>
       </c>
       <c r="X3">
-        <v>-51.548999999999999</v>
+        <v>-42.89</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-8.1059999999999999</v>
+        <v>-8.0220000000000002</v>
       </c>
       <c r="AA3">
-        <v>59.07</v>
+        <v>60.158000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>37134</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>70.775999999999996</v>
+        <v>56.54</v>
       </c>
       <c r="D4">
-        <v>1012.087</v>
+        <v>564.6</v>
       </c>
       <c r="E4">
-        <v>429.13099999999997</v>
+        <v>248.28299999999999</v>
       </c>
       <c r="F4">
-        <v>433.04700000000003</v>
+        <v>236.02199999999999</v>
       </c>
       <c r="G4">
-        <v>1700.777</v>
+        <v>838.70899999999995</v>
       </c>
       <c r="H4">
-        <v>4351.9399999999996</v>
+        <v>1785.27</v>
       </c>
       <c r="I4">
-        <v>110.279</v>
+        <v>42.540999999999997</v>
       </c>
       <c r="J4">
-        <v>1284.79</v>
+        <v>217.738</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -935,81 +1055,81 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-3.2669999999999999</v>
       </c>
       <c r="N4">
-        <v>434.13900000000001</v>
+        <v>225.666</v>
       </c>
       <c r="O4">
-        <v>2049.2910000000002</v>
+        <v>496.60599999999999</v>
       </c>
       <c r="P4">
-        <v>1286.125</v>
+        <v>238.27799999999999</v>
       </c>
       <c r="Q4">
-        <v>253.375</v>
+        <v>-8.9730000000000008</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>37134</v>
       </c>
       <c r="S4">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2302.6489999999999</v>
+        <v>1288.664</v>
       </c>
       <c r="U4">
-        <v>438.10599999999999</v>
+        <v>64.751000000000005</v>
       </c>
       <c r="V4">
-        <v>132.93100000000001</v>
+        <v>60.43</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>232.03200000000001</v>
+        <v>-1.9930000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-53.956000000000003</v>
+        <v>-25.393999999999998</v>
       </c>
       <c r="AA4">
-        <v>70.775999999999996</v>
+        <v>56.54</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>37225</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>68.638000000000005</v>
+        <v>57.984999999999999</v>
       </c>
       <c r="D5">
-        <v>1017.18</v>
+        <v>557.14800000000002</v>
       </c>
       <c r="E5">
-        <v>439.09</v>
+        <v>252.48699999999999</v>
       </c>
       <c r="F5">
-        <v>439.04</v>
+        <v>234.155</v>
       </c>
       <c r="G5">
-        <v>1482.615</v>
+        <v>920.39300000000003</v>
       </c>
       <c r="H5">
-        <v>4127.8919999999998</v>
+        <v>1875.1990000000001</v>
       </c>
       <c r="I5">
-        <v>100.745</v>
+        <v>46.335999999999999</v>
       </c>
       <c r="J5">
-        <v>1059.6479999999999</v>
+        <v>209.03100000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,81 +1138,81 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-0.44400000000000001</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>618.64599999999996</v>
+        <v>266.803</v>
       </c>
       <c r="O5">
-        <v>2013.4069999999999</v>
+        <v>530.053</v>
       </c>
       <c r="P5">
-        <v>1285.681</v>
+        <v>230.09899999999999</v>
       </c>
       <c r="Q5">
-        <v>-287.79399999999998</v>
+        <v>36.527999999999999</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>37225</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2114.4850000000001</v>
+        <v>1345.146</v>
       </c>
       <c r="U5">
-        <v>150.31200000000001</v>
+        <v>101.279</v>
       </c>
       <c r="V5">
-        <v>56.561999999999998</v>
+        <v>120.33199999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-262.15699999999998</v>
+        <v>-9.3219999999999992</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-43.584000000000003</v>
+        <v>-39.753999999999998</v>
       </c>
       <c r="AA5">
-        <v>68.638000000000005</v>
+        <v>57.984999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>37315</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>74.349999999999994</v>
+        <v>55.584000000000003</v>
       </c>
       <c r="D6">
-        <v>1019.126</v>
+        <v>545.49099999999999</v>
       </c>
       <c r="E6">
-        <v>447.35</v>
+        <v>237.69399999999999</v>
       </c>
       <c r="F6">
-        <v>429.79700000000003</v>
+        <v>229.34</v>
       </c>
       <c r="G6">
-        <v>1591.8679999999999</v>
+        <v>936.80399999999997</v>
       </c>
       <c r="H6">
-        <v>4215.3119999999999</v>
+        <v>1898.3620000000001</v>
       </c>
       <c r="I6">
-        <v>111.136</v>
+        <v>38.204999999999998</v>
       </c>
       <c r="J6">
-        <v>1059.49</v>
+        <v>186.143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>720.20100000000002</v>
+        <v>298.375</v>
       </c>
       <c r="O6">
-        <v>2112.6930000000002</v>
+        <v>540.06700000000001</v>
       </c>
       <c r="P6">
-        <v>1285.222</v>
+        <v>204.28200000000001</v>
       </c>
       <c r="Q6">
-        <v>57.46</v>
+        <v>-15.022</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>37315</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2102.6190000000001</v>
+        <v>1358.2950000000001</v>
       </c>
       <c r="U6">
-        <v>207.77199999999999</v>
+        <v>86.257000000000005</v>
       </c>
       <c r="V6">
-        <v>119.396</v>
+        <v>100.029</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.104</v>
+        <v>-25.817</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-9.7810000000000006</v>
+        <v>-51.231999999999999</v>
       </c>
       <c r="AA6">
-        <v>74.349999999999994</v>
+        <v>55.584000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40968</v>
+        <v>37407</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>76.034999999999997</v>
+        <v>64.141999999999996</v>
       </c>
       <c r="D7">
-        <v>1012.112</v>
+        <v>603.81299999999999</v>
       </c>
       <c r="E7">
-        <v>439.65</v>
+        <v>283.23399999999998</v>
       </c>
       <c r="F7">
-        <v>425.90300000000002</v>
+        <v>257.85300000000001</v>
       </c>
       <c r="G7">
-        <v>1625.5360000000001</v>
+        <v>853.25</v>
       </c>
       <c r="H7">
-        <v>4253.1670000000004</v>
+        <v>2519.2339999999999</v>
       </c>
       <c r="I7">
-        <v>115.566</v>
+        <v>60.393000000000001</v>
       </c>
       <c r="J7">
-        <v>1059.2760000000001</v>
+        <v>703.25</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>648.56100000000004</v>
+        <v>312.63400000000001</v>
       </c>
       <c r="O7">
-        <v>2056.54</v>
+        <v>1095.4749999999999</v>
       </c>
       <c r="P7">
-        <v>1284.9090000000001</v>
+        <v>721.61900000000003</v>
       </c>
       <c r="Q7">
-        <v>10.211</v>
+        <v>-45.628999999999998</v>
       </c>
       <c r="R7">
-        <v>40968</v>
+        <v>37407</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="T7">
-        <v>2196.627</v>
+        <v>1423.759</v>
       </c>
       <c r="U7">
-        <v>217.983</v>
+        <v>40.628</v>
       </c>
       <c r="V7">
-        <v>131.756</v>
+        <v>96.641999999999996</v>
       </c>
       <c r="W7">
-        <v>-70.819999999999993</v>
+        <v>-42.454000000000001</v>
       </c>
       <c r="X7">
-        <v>-70.918999999999997</v>
+        <v>475.94900000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-3.0840000000000001</v>
+        <v>108.42700000000001</v>
       </c>
       <c r="AA7">
-        <v>76.034999999999997</v>
+        <v>64.141999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41060</v>
+        <v>37499</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>78.614000000000004</v>
+        <v>61.646999999999998</v>
       </c>
       <c r="D8">
-        <v>1053.5820000000001</v>
+        <v>665.726</v>
       </c>
       <c r="E8">
-        <v>450.86099999999999</v>
+        <v>282.351</v>
       </c>
       <c r="F8">
-        <v>443.86799999999999</v>
+        <v>282.01299999999998</v>
       </c>
       <c r="G8">
-        <v>1538.086</v>
+        <v>864.04399999999998</v>
       </c>
       <c r="H8">
-        <v>4165.7060000000001</v>
+        <v>2535.9520000000002</v>
       </c>
       <c r="I8">
-        <v>94.84</v>
+        <v>70.853999999999999</v>
       </c>
       <c r="J8">
-        <v>1059.1659999999999</v>
+        <v>663.59</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1267,81 +1387,81 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-48.798000000000002</v>
       </c>
       <c r="N8">
-        <v>675.69100000000003</v>
+        <v>303.44600000000003</v>
       </c>
       <c r="O8">
-        <v>2026.5709999999999</v>
+        <v>1050.279</v>
       </c>
       <c r="P8">
-        <v>1284.8019999999999</v>
+        <v>680.32600000000002</v>
       </c>
       <c r="Q8">
-        <v>121.842</v>
+        <v>-7.2210000000000001</v>
       </c>
       <c r="R8">
-        <v>41060</v>
+        <v>37499</v>
       </c>
       <c r="S8">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>2139.1350000000002</v>
+        <v>1485.673</v>
       </c>
       <c r="U8">
-        <v>339.82499999999999</v>
+        <v>33.406999999999996</v>
       </c>
       <c r="V8">
-        <v>162.148</v>
+        <v>69.978999999999999</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-127.60299999999999</v>
+        <v>-48.530999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>135.81</v>
+        <v>8.7050000000000001</v>
       </c>
       <c r="AA8">
-        <v>78.614000000000004</v>
+        <v>61.646999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41152</v>
+        <v>37590</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>76.733000000000004</v>
+        <v>63.34</v>
       </c>
       <c r="D9">
-        <v>1051.325</v>
+        <v>680.95799999999997</v>
       </c>
       <c r="E9">
-        <v>459.30200000000002</v>
+        <v>287.476</v>
       </c>
       <c r="F9">
-        <v>445.875</v>
+        <v>283.82299999999998</v>
       </c>
       <c r="G9">
-        <v>1523.877</v>
+        <v>906.476</v>
       </c>
       <c r="H9">
-        <v>4152.2349999999997</v>
+        <v>2584.8409999999999</v>
       </c>
       <c r="I9">
-        <v>110.90600000000001</v>
+        <v>65.356999999999999</v>
       </c>
       <c r="J9">
-        <v>1309.0119999999999</v>
+        <v>610.89400000000001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,81 +1470,81 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-225.154</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>384.11099999999999</v>
+        <v>338.57400000000001</v>
       </c>
       <c r="O9">
-        <v>1997.82</v>
+        <v>1034.242</v>
       </c>
       <c r="P9">
-        <v>1309.6479999999999</v>
+        <v>628.24900000000002</v>
       </c>
       <c r="Q9">
-        <v>-20.608000000000001</v>
+        <v>17.501999999999999</v>
       </c>
       <c r="R9">
-        <v>41152</v>
+        <v>37590</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2154.415</v>
+        <v>1550.5989999999999</v>
       </c>
       <c r="U9">
-        <v>319.21699999999998</v>
+        <v>50.908999999999999</v>
       </c>
       <c r="V9">
-        <v>94.864999999999995</v>
+        <v>112.169</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-55.478999999999999</v>
+        <v>-51.488</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-12.25</v>
+        <v>-2.5619999999999998</v>
       </c>
       <c r="AA9">
-        <v>76.733000000000004</v>
+        <v>63.34</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41243</v>
+        <v>37680</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>78.027000000000001</v>
+        <v>59.055</v>
       </c>
       <c r="D10">
-        <v>1060.386</v>
+        <v>663.75699999999995</v>
       </c>
       <c r="E10">
-        <v>479.10599999999999</v>
+        <v>273.37200000000001</v>
       </c>
       <c r="F10">
-        <v>433.63600000000002</v>
+        <v>274.416</v>
       </c>
       <c r="G10">
-        <v>1519.662</v>
+        <v>891.14800000000002</v>
       </c>
       <c r="H10">
-        <v>4217.8819999999996</v>
+        <v>2577.2130000000002</v>
       </c>
       <c r="I10">
-        <v>118.53400000000001</v>
+        <v>49.911999999999999</v>
       </c>
       <c r="J10">
-        <v>1308.829</v>
+        <v>566.73699999999997</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>555.17899999999997</v>
+        <v>352.65499999999997</v>
       </c>
       <c r="O10">
-        <v>2137.2379999999998</v>
+        <v>1007.425</v>
       </c>
       <c r="P10">
-        <v>1309.49</v>
+        <v>582.96</v>
       </c>
       <c r="Q10">
-        <v>-76.73</v>
+        <v>-8.734</v>
       </c>
       <c r="R10">
-        <v>41243</v>
+        <v>37680</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2080.6439999999998</v>
+        <v>1569.788</v>
       </c>
       <c r="U10">
-        <v>242.48699999999999</v>
+        <v>42.174999999999997</v>
       </c>
       <c r="V10">
-        <v>132.398</v>
+        <v>69.78</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-79.126999999999995</v>
+        <v>-42.082000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-26.350999999999999</v>
+        <v>3.2909999999999999</v>
       </c>
       <c r="AA10">
-        <v>78.027000000000001</v>
+        <v>59.055</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41333</v>
+        <v>37772</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>74.704999999999998</v>
+        <v>65.210999999999999</v>
       </c>
       <c r="D11">
-        <v>1075.674</v>
+        <v>676.14400000000001</v>
       </c>
       <c r="E11">
-        <v>495.12400000000002</v>
+        <v>278.14699999999999</v>
       </c>
       <c r="F11">
-        <v>441.94099999999997</v>
+        <v>278.95600000000002</v>
       </c>
       <c r="G11">
-        <v>1509.452</v>
+        <v>877.54399999999998</v>
       </c>
       <c r="H11">
-        <v>4221.299</v>
+        <v>2582.9459999999999</v>
       </c>
       <c r="I11">
-        <v>109.06399999999999</v>
+        <v>53.908999999999999</v>
       </c>
       <c r="J11">
-        <v>1308.6559999999999</v>
+        <v>534.76300000000003</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>500.75200000000001</v>
+        <v>304.839</v>
       </c>
       <c r="O11">
-        <v>2091.0529999999999</v>
+        <v>936.61400000000003</v>
       </c>
       <c r="P11">
-        <v>1309.33</v>
+        <v>563.01400000000001</v>
       </c>
       <c r="Q11">
-        <v>-25.016999999999999</v>
+        <v>-9.9359999999999999</v>
       </c>
       <c r="R11">
-        <v>41333</v>
+        <v>37772</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>27700</v>
       </c>
       <c r="T11">
-        <v>2130.2460000000001</v>
+        <v>1646.3320000000001</v>
       </c>
       <c r="U11">
-        <v>217.47</v>
+        <v>32.238999999999997</v>
       </c>
       <c r="V11">
-        <v>141.08000000000001</v>
+        <v>78.759</v>
       </c>
       <c r="W11">
-        <v>-79.744</v>
+        <v>-46.003</v>
       </c>
       <c r="X11">
-        <v>-101.91500000000001</v>
+        <v>-60.753</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.85399999999999998</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="AA11">
-        <v>74.704999999999998</v>
+        <v>65.210999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41425</v>
+        <v>37864</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>85.977000000000004</v>
+        <v>63.326999999999998</v>
       </c>
       <c r="D12">
-        <v>1129.086</v>
+        <v>677.65599999999995</v>
       </c>
       <c r="E12">
-        <v>496.04899999999998</v>
+        <v>271.76600000000002</v>
       </c>
       <c r="F12">
-        <v>467.21499999999997</v>
+        <v>287.44799999999998</v>
       </c>
       <c r="G12">
-        <v>1624.826</v>
+        <v>897.38099999999997</v>
       </c>
       <c r="H12">
-        <v>4345.6319999999996</v>
+        <v>2596.1260000000002</v>
       </c>
       <c r="I12">
-        <v>121.029</v>
+        <v>48.838999999999999</v>
       </c>
       <c r="J12">
-        <v>1300.979</v>
+        <v>527.71400000000006</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,81 +1719,81 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-1.7969999999999999</v>
       </c>
       <c r="N12">
-        <v>556.25599999999997</v>
+        <v>259.29500000000002</v>
       </c>
       <c r="O12">
-        <v>2144.14</v>
+        <v>886.14800000000002</v>
       </c>
       <c r="P12">
-        <v>1309.1659999999999</v>
+        <v>554.36699999999996</v>
       </c>
       <c r="Q12">
-        <v>134.803</v>
+        <v>22.675000000000001</v>
       </c>
       <c r="R12">
-        <v>41425</v>
+        <v>37864</v>
       </c>
       <c r="S12">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>2201.4920000000002</v>
+        <v>1709.9780000000001</v>
       </c>
       <c r="U12">
-        <v>352.27300000000002</v>
+        <v>54.914000000000001</v>
       </c>
       <c r="V12">
-        <v>184.405</v>
+        <v>72.058000000000007</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-19.536999999999999</v>
+        <v>-1.478</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>20.760999999999999</v>
+        <v>-11.951000000000001</v>
       </c>
       <c r="AA12">
-        <v>85.977000000000004</v>
+        <v>63.326999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41517</v>
+        <v>37955</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>77.754000000000005</v>
+        <v>69.656999999999996</v>
       </c>
       <c r="D13">
-        <v>1100.2460000000001</v>
+        <v>701.30899999999997</v>
       </c>
       <c r="E13">
-        <v>511.642</v>
+        <v>279.58800000000002</v>
       </c>
       <c r="F13">
-        <v>456.09500000000003</v>
+        <v>293.43700000000001</v>
       </c>
       <c r="G13">
-        <v>1572.289</v>
+        <v>997.45699999999999</v>
       </c>
       <c r="H13">
-        <v>4311.1769999999997</v>
+        <v>2694.9430000000002</v>
       </c>
       <c r="I13">
-        <v>124.952</v>
+        <v>56.271000000000001</v>
       </c>
       <c r="J13">
-        <v>1300.799</v>
+        <v>482.85</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1682,81 +1802,81 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>515.69500000000005</v>
+        <v>322.25099999999998</v>
       </c>
       <c r="O13">
-        <v>2115.1660000000002</v>
+        <v>906.52499999999998</v>
       </c>
       <c r="P13">
-        <v>1308.999</v>
+        <v>506.34199999999998</v>
       </c>
       <c r="Q13">
-        <v>-73.602999999999994</v>
+        <v>43.682000000000002</v>
       </c>
       <c r="R13">
-        <v>41517</v>
+        <v>37955</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2196.011</v>
+        <v>1788.4179999999999</v>
       </c>
       <c r="U13">
-        <v>278.67</v>
+        <v>98.596000000000004</v>
       </c>
       <c r="V13">
-        <v>82.558999999999997</v>
+        <v>177.47200000000001</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-88.933000000000007</v>
+        <v>-40.692999999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>2.2919999999999998</v>
+        <v>-60.148000000000003</v>
       </c>
       <c r="AA13">
-        <v>77.754000000000005</v>
+        <v>69.656999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41608</v>
+        <v>38046</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>84.861999999999995</v>
+        <v>66.492999999999995</v>
       </c>
       <c r="D14">
-        <v>1123.931</v>
+        <v>696.94</v>
       </c>
       <c r="E14">
-        <v>520.52300000000002</v>
+        <v>276.71800000000002</v>
       </c>
       <c r="F14">
-        <v>467.07900000000001</v>
+        <v>295.71100000000001</v>
       </c>
       <c r="G14">
-        <v>1618.7819999999999</v>
+        <v>1033.0319999999999</v>
       </c>
       <c r="H14">
-        <v>4365.3980000000001</v>
+        <v>2755.0039999999999</v>
       </c>
       <c r="I14">
-        <v>103.242</v>
+        <v>48.902000000000001</v>
       </c>
       <c r="J14">
-        <v>1300.615</v>
+        <v>482.57600000000002</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>614.56100000000004</v>
+        <v>345.04500000000002</v>
       </c>
       <c r="O14">
-        <v>2217.4259999999999</v>
+        <v>944.27200000000005</v>
       </c>
       <c r="P14">
-        <v>1301.329</v>
+        <v>504.82600000000002</v>
       </c>
       <c r="Q14">
-        <v>30.664000000000001</v>
+        <v>15.156000000000001</v>
       </c>
       <c r="R14">
-        <v>41608</v>
+        <v>38046</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>2147.9720000000002</v>
+        <v>1810.732</v>
       </c>
       <c r="U14">
-        <v>309.334</v>
+        <v>113.752</v>
       </c>
       <c r="V14">
-        <v>139.721</v>
+        <v>110.90600000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-55.47</v>
+        <v>-1.9059999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-12.590999999999999</v>
+        <v>-37.587000000000003</v>
       </c>
       <c r="AA14">
-        <v>84.861999999999995</v>
+        <v>66.492999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>38138</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>84.602000000000004</v>
+        <v>72.727999999999994</v>
       </c>
       <c r="D15">
-        <v>1110.973</v>
+        <v>738.154</v>
       </c>
       <c r="E15">
-        <v>529.66800000000001</v>
+        <v>285.59199999999998</v>
       </c>
       <c r="F15">
-        <v>469.63400000000001</v>
+        <v>309.89600000000002</v>
       </c>
       <c r="G15">
-        <v>1664.9090000000001</v>
+        <v>1034.2429999999999</v>
       </c>
       <c r="H15">
-        <v>4400.4409999999998</v>
+        <v>2810.297</v>
       </c>
       <c r="I15">
-        <v>117.336</v>
+        <v>53.451000000000001</v>
       </c>
       <c r="J15">
-        <v>1300.5229999999999</v>
+        <v>473.685</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>552.80200000000002</v>
+        <v>325.68599999999998</v>
       </c>
       <c r="O15">
-        <v>2156.4079999999999</v>
+        <v>922.32799999999997</v>
       </c>
       <c r="P15">
-        <v>1301.1559999999999</v>
+        <v>484.20800000000003</v>
       </c>
       <c r="Q15">
-        <v>39.524999999999999</v>
+        <v>-26.395</v>
       </c>
       <c r="R15">
-        <v>41698</v>
+        <v>38138</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>28300</v>
       </c>
       <c r="T15">
-        <v>2244.0329999999999</v>
+        <v>1887.9690000000001</v>
       </c>
       <c r="U15">
-        <v>348.85899999999998</v>
+        <v>87.356999999999999</v>
       </c>
       <c r="V15">
-        <v>163.49299999999999</v>
+        <v>149.273</v>
       </c>
       <c r="W15">
-        <v>-93.313999999999993</v>
+        <v>-49.634</v>
       </c>
       <c r="X15">
-        <v>-81.757999999999996</v>
+        <v>-66.709999999999994</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-3.4009999999999998</v>
+        <v>-31.858000000000001</v>
       </c>
       <c r="AA15">
-        <v>84.602000000000004</v>
+        <v>72.727999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41790</v>
+        <v>38230</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>127.224</v>
+        <v>72.665999999999997</v>
       </c>
       <c r="D16">
-        <v>1134.415</v>
+        <v>745.95600000000002</v>
       </c>
       <c r="E16">
-        <v>508.42700000000002</v>
+        <v>291.27699999999999</v>
       </c>
       <c r="F16">
-        <v>480.846</v>
+        <v>318.83800000000002</v>
       </c>
       <c r="G16">
-        <v>1805.681</v>
+        <v>1059.451</v>
       </c>
       <c r="H16">
-        <v>4462.4520000000002</v>
+        <v>2847.0140000000001</v>
       </c>
       <c r="I16">
-        <v>150.07</v>
+        <v>55.326000000000001</v>
       </c>
       <c r="J16">
-        <v>1300.4770000000001</v>
+        <v>474.26600000000002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,81 +2051,81 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-0.182</v>
       </c>
       <c r="N16">
-        <v>630.13099999999997</v>
+        <v>279.964</v>
       </c>
       <c r="O16">
-        <v>2269.5940000000001</v>
+        <v>880.649</v>
       </c>
       <c r="P16">
-        <v>1300.98</v>
+        <v>484.738</v>
       </c>
       <c r="Q16">
-        <v>164.429</v>
+        <v>-5.4080000000000004</v>
       </c>
       <c r="R16">
-        <v>41790</v>
+        <v>38230</v>
       </c>
       <c r="S16">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>2192.8580000000002</v>
+        <v>1966.365</v>
       </c>
       <c r="U16">
-        <v>513.28800000000001</v>
+        <v>81.948999999999998</v>
       </c>
       <c r="V16">
-        <v>220.196</v>
+        <v>52.835000000000001</v>
       </c>
       <c r="W16">
-        <v>-6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-203.57400000000001</v>
+        <v>5.548</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>4.0380000000000003</v>
+        <v>-15.064</v>
       </c>
       <c r="AA16">
-        <v>127.224</v>
+        <v>72.665999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41882</v>
+        <v>38321</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>110.108</v>
+        <v>73.56</v>
       </c>
       <c r="D17">
-        <v>1102.077</v>
+        <v>756.84</v>
       </c>
       <c r="E17">
-        <v>489.21100000000001</v>
+        <v>308.99599999999998</v>
       </c>
       <c r="F17">
-        <v>477.94600000000003</v>
+        <v>315.95499999999998</v>
       </c>
       <c r="G17">
-        <v>2012.9490000000001</v>
+        <v>1185.51</v>
       </c>
       <c r="H17">
-        <v>4556.2700000000004</v>
+        <v>2994.0949999999998</v>
       </c>
       <c r="I17">
-        <v>141.79499999999999</v>
+        <v>65.75</v>
       </c>
       <c r="J17">
-        <v>1300</v>
+        <v>465.178</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,81 +2134,81 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>636.01099999999997</v>
+        <v>344.08300000000003</v>
       </c>
       <c r="O17">
-        <v>2284.2959999999998</v>
+        <v>938.97400000000005</v>
       </c>
       <c r="P17">
-        <v>1300</v>
+        <v>475.33300000000003</v>
       </c>
       <c r="Q17">
-        <v>68.165000000000006</v>
+        <v>31.446000000000002</v>
       </c>
       <c r="R17">
-        <v>41882</v>
+        <v>38321</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2271.9740000000002</v>
+        <v>2055.1210000000001</v>
       </c>
       <c r="U17">
-        <v>581.45299999999997</v>
+        <v>113.395</v>
       </c>
       <c r="V17">
-        <v>148.20099999999999</v>
+        <v>143.78899999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-41.198</v>
+        <v>8.718</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>22.952000000000002</v>
+        <v>-60.741</v>
       </c>
       <c r="AA17">
-        <v>110.108</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41973</v>
+        <v>38411</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>120.41200000000001</v>
+        <v>71.331999999999994</v>
       </c>
       <c r="D18">
-        <v>1123.3789999999999</v>
+        <v>755.24099999999999</v>
       </c>
       <c r="E18">
-        <v>510.15300000000002</v>
+        <v>300.81900000000002</v>
       </c>
       <c r="F18">
-        <v>481.42399999999998</v>
+        <v>321.45400000000001</v>
       </c>
       <c r="G18">
-        <v>2145.98</v>
+        <v>1192.2529999999999</v>
       </c>
       <c r="H18">
-        <v>4697.5709999999999</v>
+        <v>3055.5230000000001</v>
       </c>
       <c r="I18">
-        <v>171.62899999999999</v>
+        <v>57.064</v>
       </c>
       <c r="J18">
-        <v>1300</v>
+        <v>462.202</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>851.76400000000001</v>
+        <v>385.358</v>
       </c>
       <c r="O18">
-        <v>2494.2370000000001</v>
+        <v>974.61900000000003</v>
       </c>
       <c r="P18">
-        <v>1300</v>
+        <v>472.36399999999998</v>
       </c>
       <c r="Q18">
-        <v>245.27099999999999</v>
+        <v>-41.534999999999997</v>
       </c>
       <c r="R18">
-        <v>41973</v>
+        <v>38411</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>2203.3339999999998</v>
+        <v>2080.904</v>
       </c>
       <c r="U18">
-        <v>826.72400000000005</v>
+        <v>71.86</v>
       </c>
       <c r="V18">
-        <v>144.37200000000001</v>
+        <v>91.600999999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1.4910000000000001</v>
+        <v>-4.0030000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-4.9969999999999999</v>
+        <v>-53.161000000000001</v>
       </c>
       <c r="AA18">
-        <v>120.41200000000001</v>
+        <v>71.331999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42063</v>
+        <v>38503</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>94.882999999999996</v>
+        <v>82.96</v>
       </c>
       <c r="D19">
-        <v>1108.847</v>
+        <v>809.24599999999998</v>
       </c>
       <c r="E19">
-        <v>497.97800000000001</v>
+        <v>326.89600000000002</v>
       </c>
       <c r="F19">
-        <v>475.30700000000002</v>
+        <v>348.512</v>
       </c>
       <c r="G19">
-        <v>1710.125</v>
+        <v>1166.5440000000001</v>
       </c>
       <c r="H19">
-        <v>4266.3459999999995</v>
+        <v>3059.7440000000001</v>
       </c>
       <c r="I19">
-        <v>111.952</v>
+        <v>69.296000000000006</v>
       </c>
       <c r="J19">
-        <v>1300</v>
+        <v>465.291</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>579.23099999999999</v>
+        <v>356.48099999999999</v>
       </c>
       <c r="O19">
-        <v>2218.6799999999998</v>
+        <v>955.60900000000004</v>
       </c>
       <c r="P19">
-        <v>1300</v>
+        <v>472.59100000000001</v>
       </c>
       <c r="Q19">
-        <v>-468.404</v>
+        <v>-28.664000000000001</v>
       </c>
       <c r="R19">
-        <v>42063</v>
+        <v>38503</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="T19">
-        <v>2047.6659999999999</v>
+        <v>2104.1350000000002</v>
       </c>
       <c r="U19">
-        <v>358.32</v>
+        <v>43.195999999999998</v>
       </c>
       <c r="V19">
-        <v>85.072999999999993</v>
+        <v>125.988</v>
       </c>
       <c r="W19">
-        <v>-100.9705</v>
+        <v>-54.968000000000004</v>
       </c>
       <c r="X19">
-        <v>-442.24299999999999</v>
+        <v>-117.90300000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-49.258000000000003</v>
+        <v>29.698</v>
       </c>
       <c r="AA19">
-        <v>94.882999999999996</v>
+        <v>82.96</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>38595</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>105.215</v>
+        <v>78.421999999999997</v>
       </c>
       <c r="D20">
-        <v>1142.5830000000001</v>
+        <v>823.47500000000002</v>
       </c>
       <c r="E20">
-        <v>496.13</v>
+        <v>337.93</v>
       </c>
       <c r="F20">
-        <v>486.66</v>
+        <v>355.488</v>
       </c>
       <c r="G20">
-        <v>1735.807</v>
+        <v>1136.5070000000001</v>
       </c>
       <c r="H20">
-        <v>4192.46</v>
+        <v>3042.7260000000001</v>
       </c>
       <c r="I20">
-        <v>109.607</v>
+        <v>65.781000000000006</v>
       </c>
       <c r="J20">
-        <v>1300</v>
+        <v>510.572</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2263,81 +2383,81 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-0.23699999999999999</v>
       </c>
       <c r="N20">
-        <v>508.66899999999998</v>
+        <v>305.59800000000001</v>
       </c>
       <c r="O20">
-        <v>2260.0050000000001</v>
+        <v>949.90499999999997</v>
       </c>
       <c r="P20">
-        <v>1300</v>
+        <v>517.83000000000004</v>
       </c>
       <c r="Q20">
-        <v>58.753</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>38595</v>
       </c>
       <c r="S20">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1932.4549999999999</v>
+        <v>2092.8209999999999</v>
       </c>
       <c r="U20">
-        <v>417.07299999999998</v>
+        <v>43.436999999999998</v>
       </c>
       <c r="V20">
-        <v>202.63</v>
+        <v>46.875</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-230.61</v>
+        <v>-44.930999999999997</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>27.702999999999999</v>
+        <v>51.921999999999997</v>
       </c>
       <c r="AA20">
-        <v>105.215</v>
+        <v>78.421999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42247</v>
+        <v>38686</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>100.181</v>
+        <v>76.838999999999999</v>
       </c>
       <c r="D21">
-        <v>1198.8900000000001</v>
+        <v>835.78499999999997</v>
       </c>
       <c r="E21">
-        <v>531.12699999999995</v>
+        <v>359.69600000000003</v>
       </c>
       <c r="F21">
-        <v>524.14400000000001</v>
+        <v>350.46100000000001</v>
       </c>
       <c r="G21">
-        <v>1733.952</v>
+        <v>1152.575</v>
       </c>
       <c r="H21">
-        <v>4122.9489999999996</v>
+        <v>3120.9670000000001</v>
       </c>
       <c r="I21">
-        <v>131.95599999999999</v>
+        <v>58.557000000000002</v>
       </c>
       <c r="J21">
-        <v>1050</v>
+        <v>461.89</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,81 +2466,81 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>959.32600000000002</v>
+        <v>363.61099999999999</v>
       </c>
       <c r="O21">
-        <v>2274.2800000000002</v>
+        <v>958.43299999999999</v>
       </c>
       <c r="P21">
-        <v>1300</v>
+        <v>466.142</v>
       </c>
       <c r="Q21">
-        <v>-270.21300000000002</v>
+        <v>9.1590000000000007</v>
       </c>
       <c r="R21">
-        <v>42247</v>
+        <v>38686</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1848.6690000000001</v>
+        <v>2162.5340000000001</v>
       </c>
       <c r="U21">
-        <v>146.86000000000001</v>
+        <v>52.595999999999997</v>
       </c>
       <c r="V21">
-        <v>143.083</v>
+        <v>159.024</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-209.71899999999999</v>
+        <v>-60.314</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-43.113</v>
+        <v>10.972</v>
       </c>
       <c r="AA21">
-        <v>100.181</v>
+        <v>76.838999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42338</v>
+        <v>38776</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>345.1</v>
+        <v>76.593999999999994</v>
       </c>
       <c r="D22">
-        <v>1219.08</v>
+        <v>836.42100000000005</v>
       </c>
       <c r="E22">
-        <v>549.19000000000005</v>
+        <v>358.03300000000002</v>
       </c>
       <c r="F22">
-        <v>527.4</v>
+        <v>352.97</v>
       </c>
       <c r="G22">
-        <v>2043.28</v>
+        <v>1147.96</v>
       </c>
       <c r="H22">
-        <v>4450.7920000000004</v>
+        <v>3362.364</v>
       </c>
       <c r="I22">
-        <v>134.84299999999999</v>
+        <v>62.030999999999999</v>
       </c>
       <c r="J22">
-        <v>1050</v>
+        <v>634.19299999999998</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1130.981</v>
+        <v>409.298</v>
       </c>
       <c r="O22">
-        <v>2526.2640000000001</v>
+        <v>1177.8330000000001</v>
       </c>
       <c r="P22">
-        <v>1300</v>
+        <v>638.47699999999998</v>
       </c>
       <c r="Q22">
-        <v>459.92500000000001</v>
+        <v>-4.5529999999999999</v>
       </c>
       <c r="R22">
-        <v>42338</v>
+        <v>38776</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1924.528</v>
+        <v>2184.5309999999999</v>
       </c>
       <c r="U22">
-        <v>606.78499999999997</v>
+        <v>48.042999999999999</v>
       </c>
       <c r="V22">
-        <v>121.95399999999999</v>
+        <v>105.02200000000001</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-174.5</v>
+        <v>179.59</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-16.146999999999998</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AA22">
-        <v>345.1</v>
+        <v>76.593999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42429</v>
+        <v>38868</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>117.34099999999999</v>
+        <v>91.527000000000001</v>
       </c>
       <c r="D23">
-        <v>1216.0830000000001</v>
+        <v>907.92700000000002</v>
       </c>
       <c r="E23">
-        <v>550.74800000000005</v>
+        <v>389.90499999999997</v>
       </c>
       <c r="F23">
-        <v>524.60799999999995</v>
+        <v>395.87299999999999</v>
       </c>
       <c r="G23">
-        <v>1758.8240000000001</v>
+        <v>1178.008</v>
       </c>
       <c r="H23">
-        <v>4231.21</v>
+        <v>3425.2370000000001</v>
       </c>
       <c r="I23">
-        <v>151.833</v>
+        <v>71.635000000000005</v>
       </c>
       <c r="J23">
-        <v>1072.4380000000001</v>
+        <v>794.45399999999995</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>858.80399999999997</v>
+        <v>410.34699999999998</v>
       </c>
       <c r="O23">
-        <v>2281.1039999999998</v>
+        <v>1335.0450000000001</v>
       </c>
       <c r="P23">
-        <v>1322.4380000000001</v>
+        <v>798.74199999999996</v>
       </c>
       <c r="Q23">
-        <v>-291.66899999999998</v>
+        <v>-9.1289999999999996</v>
       </c>
       <c r="R23">
-        <v>42429</v>
+        <v>38868</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="T23">
-        <v>1950.106</v>
+        <v>2090.192</v>
       </c>
       <c r="U23">
-        <v>315.11599999999999</v>
+        <v>38.914000000000001</v>
       </c>
       <c r="V23">
-        <v>32.116999999999997</v>
+        <v>150.10400000000001</v>
       </c>
       <c r="W23">
-        <v>-115.273</v>
+        <v>-58.823</v>
       </c>
       <c r="X23">
-        <v>-210.096</v>
+        <v>-99.605999999999995</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>2.2429999999999999</v>
+        <v>-7.9290000000000003</v>
       </c>
       <c r="AA23">
-        <v>117.34099999999999</v>
+        <v>91.527000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42521</v>
+        <v>38960</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>130.898</v>
+        <v>84.962000000000003</v>
       </c>
       <c r="D24">
-        <v>1161.7190000000001</v>
+        <v>914.16099999999994</v>
       </c>
       <c r="E24">
-        <v>546.48800000000006</v>
+        <v>391.411</v>
       </c>
       <c r="F24">
-        <v>525.18799999999999</v>
+        <v>390.48099999999999</v>
       </c>
       <c r="G24">
-        <v>1590.579</v>
+        <v>1127.0129999999999</v>
       </c>
       <c r="H24">
-        <v>4098.8149999999996</v>
+        <v>3384.221</v>
       </c>
       <c r="I24">
-        <v>110.94</v>
+        <v>59.865000000000002</v>
       </c>
       <c r="J24">
-        <v>1064.05</v>
+        <v>627.39300000000003</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2595,167 +2715,167 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-194.28299999999999</v>
       </c>
       <c r="N24">
-        <v>815.55499999999995</v>
+        <v>583.00300000000004</v>
       </c>
       <c r="O24">
-        <v>2256.1559999999999</v>
+        <v>1333.162</v>
       </c>
       <c r="P24">
-        <v>1314.05</v>
+        <v>856.91899999999998</v>
       </c>
       <c r="Q24">
-        <v>-175.75899999999999</v>
+        <v>-3.9489999999999998</v>
       </c>
       <c r="R24">
-        <v>42521</v>
+        <v>38960</v>
       </c>
       <c r="S24">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1842.6590000000001</v>
+        <v>2051.0590000000002</v>
       </c>
       <c r="U24">
-        <v>139.357</v>
+        <v>34.965000000000003</v>
       </c>
       <c r="V24">
-        <v>168.691</v>
+        <v>55.844000000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-272.40899999999999</v>
+        <v>-58.929000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-2.95</v>
+        <v>62.686999999999998</v>
       </c>
       <c r="AA24">
-        <v>130.898</v>
+        <v>84.962000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42613</v>
+        <v>39051</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>138.09100000000001</v>
+        <v>82.527000000000001</v>
       </c>
       <c r="D25">
-        <v>1266.6500000000001</v>
+        <v>923.26599999999996</v>
       </c>
       <c r="E25">
-        <v>586.37199999999996</v>
+        <v>405.04199999999997</v>
       </c>
       <c r="F25">
-        <v>576.42700000000002</v>
+        <v>391.07299999999998</v>
       </c>
       <c r="G25">
-        <v>1594.748</v>
+        <v>1155.453</v>
       </c>
       <c r="H25">
-        <v>4167.1450000000004</v>
+        <v>3435.0639999999999</v>
       </c>
       <c r="I25">
-        <v>129.65</v>
+        <v>79.144000000000005</v>
       </c>
       <c r="J25">
-        <v>1083.4549999999999</v>
+        <v>561.79600000000005</v>
       </c>
       <c r="K25">
-        <v>163.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>710.85900000000004</v>
+        <v>659.96500000000003</v>
       </c>
       <c r="O25">
-        <v>2179.7429999999999</v>
+        <v>1338.652</v>
       </c>
       <c r="P25">
-        <v>1247.2550000000001</v>
+        <v>791.27300000000002</v>
       </c>
       <c r="Q25">
-        <v>-40.148000000000003</v>
+        <v>3.9740000000000002</v>
       </c>
       <c r="R25">
-        <v>42613</v>
+        <v>39051</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1987.402</v>
+        <v>2096.4119999999998</v>
       </c>
       <c r="U25">
-        <v>99.209000000000003</v>
+        <v>38.939</v>
       </c>
       <c r="V25">
-        <v>157.58799999999999</v>
+        <v>171.49</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-97.028000000000006</v>
+        <v>-100.804</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-10.117000000000001</v>
+        <v>5.8890000000000002</v>
       </c>
       <c r="AA25">
-        <v>138.09100000000001</v>
+        <v>82.527000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42704</v>
+        <v>39141</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>76.727000000000004</v>
       </c>
       <c r="D26">
-        <v>1271.077</v>
+        <v>905.39800000000002</v>
       </c>
       <c r="E26">
-        <v>607.452</v>
+        <v>393.15499999999997</v>
       </c>
       <c r="F26">
-        <v>565.21799999999996</v>
+        <v>385.827</v>
       </c>
       <c r="G26">
-        <v>1600.662</v>
+        <v>1131.739</v>
       </c>
       <c r="H26">
-        <v>4214.5789999999997</v>
+        <v>3507.489</v>
       </c>
       <c r="I26">
-        <v>127.815</v>
+        <v>69.540000000000006</v>
       </c>
       <c r="J26">
-        <v>1044.8340000000001</v>
+        <v>654.37599999999998</v>
       </c>
       <c r="K26">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>748.75699999999995</v>
+        <v>681.096</v>
       </c>
       <c r="O26">
-        <v>2188.8739999999998</v>
+        <v>1451.33</v>
       </c>
       <c r="P26">
-        <v>1110.8340000000001</v>
+        <v>883.51499999999999</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-7.3810000000000002</v>
       </c>
       <c r="R26">
-        <v>42704</v>
+        <v>39141</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>2025.7049999999999</v>
+        <v>2056.1590000000001</v>
       </c>
       <c r="U26">
-        <v>143.57300000000001</v>
+        <v>31.558</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>94.742999999999995</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>32.28</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-7.3259999999999996</v>
       </c>
       <c r="AA26">
-        <v>140.37700000000001</v>
+        <v>76.727000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42794</v>
+        <v>39233</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>118.005</v>
+        <v>90.322000000000003</v>
       </c>
       <c r="D27">
-        <v>1255.367</v>
+        <v>964.07500000000005</v>
       </c>
       <c r="E27">
-        <v>598.86300000000006</v>
+        <v>408.87</v>
       </c>
       <c r="F27">
-        <v>559.92399999999998</v>
+        <v>413.97399999999999</v>
       </c>
       <c r="G27">
-        <v>1629.941</v>
+        <v>1156.7360000000001</v>
       </c>
       <c r="H27">
-        <v>4271.1639999999998</v>
+        <v>3570.48</v>
       </c>
       <c r="I27">
-        <v>127.94</v>
+        <v>64.622</v>
       </c>
       <c r="J27">
-        <v>745.18899999999996</v>
+        <v>877.07399999999996</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>943.96799999999996</v>
+        <v>403.03800000000001</v>
       </c>
       <c r="O27">
-        <v>2092.9059999999999</v>
+        <v>1402.742</v>
       </c>
       <c r="P27">
-        <v>1144.54</v>
+        <v>881.21500000000003</v>
       </c>
       <c r="Q27">
-        <v>3.6709999999999998</v>
+        <v>3.802</v>
       </c>
       <c r="R27">
-        <v>42794</v>
+        <v>39233</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="T27">
-        <v>2178.2579999999998</v>
+        <v>2167.7379999999998</v>
       </c>
       <c r="U27">
-        <v>147.244</v>
+        <v>35.36</v>
       </c>
       <c r="V27">
-        <v>182.03700000000001</v>
+        <v>127.31399999999999</v>
       </c>
       <c r="W27">
-        <v>-142.44399999999999</v>
+        <v>-61.996000000000002</v>
       </c>
       <c r="X27">
-        <v>-104.562</v>
+        <v>-51.783999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-7.8259999999999996</v>
+        <v>8.4090000000000007</v>
       </c>
       <c r="AA27">
-        <v>118.005</v>
+        <v>90.322000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42886</v>
+        <v>39325</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>84.234999999999999</v>
+        <v>81.063000000000002</v>
       </c>
       <c r="D28">
-        <v>1530.287</v>
+        <v>969.12800000000004</v>
       </c>
       <c r="E28">
-        <v>736.00800000000004</v>
+        <v>409.44099999999997</v>
       </c>
       <c r="F28">
-        <v>678.726</v>
+        <v>417.37200000000001</v>
       </c>
       <c r="G28">
-        <v>1954.4780000000001</v>
+        <v>1173.902</v>
       </c>
       <c r="H28">
-        <v>6844.0569999999998</v>
+        <v>3620.83</v>
       </c>
       <c r="I28">
-        <v>177.05099999999999</v>
+        <v>70.093000000000004</v>
       </c>
       <c r="J28">
-        <v>2770.6239999999998</v>
+        <v>876.52200000000005</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2927,164 +3047,164 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-225.28200000000001</v>
       </c>
       <c r="N28">
-        <v>1130.8520000000001</v>
+        <v>260.911</v>
       </c>
       <c r="O28">
-        <v>4541.2640000000001</v>
+        <v>1376.8689999999999</v>
       </c>
       <c r="P28">
-        <v>3133.5239999999999</v>
+        <v>880.68299999999999</v>
       </c>
       <c r="Q28">
-        <v>22.021999999999998</v>
+        <v>5.4809999999999999</v>
       </c>
       <c r="R28">
-        <v>42886</v>
+        <v>39325</v>
       </c>
       <c r="S28">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>2302.7930000000001</v>
+        <v>2243.9609999999998</v>
       </c>
       <c r="U28">
-        <v>169.26599999999999</v>
+        <v>40.841000000000001</v>
       </c>
       <c r="V28">
-        <v>280.12900000000002</v>
+        <v>57.064999999999998</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>1886.136</v>
+        <v>3.2330000000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-9.6129999999999995</v>
+        <v>22.919</v>
       </c>
       <c r="AA28">
-        <v>84.234999999999999</v>
+        <v>81.063000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42978</v>
+        <v>39416</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>217.21100000000001</v>
+        <v>82.852999999999994</v>
       </c>
       <c r="D29">
-        <v>1611.5029999999999</v>
+        <v>983.86500000000001</v>
       </c>
       <c r="E29">
-        <v>731.577</v>
+        <v>420.66699999999997</v>
       </c>
       <c r="F29">
-        <v>739.35299999999995</v>
+        <v>420.56799999999998</v>
       </c>
       <c r="G29">
-        <v>1924.5530000000001</v>
+        <v>1227.663</v>
       </c>
       <c r="H29">
-        <v>6851.6059999999998</v>
+        <v>3699.5819999999999</v>
       </c>
       <c r="I29">
-        <v>189.571</v>
+        <v>73.837000000000003</v>
       </c>
       <c r="J29">
-        <v>2533.672</v>
+        <v>947.47299999999996</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>1044.7950000000001</v>
+        <v>363.18799999999999</v>
       </c>
       <c r="O29">
-        <v>4285.7250000000004</v>
+        <v>1551.954</v>
       </c>
       <c r="P29">
-        <v>2841.1219999999998</v>
+        <v>948.79700000000003</v>
       </c>
       <c r="Q29">
-        <v>22.148</v>
+        <v>15.798999999999999</v>
       </c>
       <c r="R29">
-        <v>42978</v>
+        <v>39416</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2565.8809999999999</v>
+        <v>2147.6280000000002</v>
       </c>
       <c r="U29">
-        <v>191.41399999999999</v>
+        <v>56.64</v>
       </c>
       <c r="V29">
-        <v>254.36600000000001</v>
+        <v>212.053</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-311.43299999999999</v>
+        <v>-123.178</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>7.234</v>
+        <v>-3.85</v>
       </c>
       <c r="AA29">
-        <v>217.21100000000001</v>
+        <v>82.852999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43069</v>
+        <v>39507</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>137.10900000000001</v>
+        <v>81.828000000000003</v>
       </c>
       <c r="D30">
-        <v>1606.441</v>
+        <v>975.952</v>
       </c>
       <c r="E30">
-        <v>763.55499999999995</v>
+        <v>413.78100000000001</v>
       </c>
       <c r="F30">
-        <v>716.36900000000003</v>
+        <v>411.22500000000002</v>
       </c>
       <c r="G30">
-        <v>2043.4490000000001</v>
+        <v>1238.818</v>
       </c>
       <c r="H30">
-        <v>6978.8010000000004</v>
+        <v>3762.2779999999998</v>
       </c>
       <c r="I30">
-        <v>162.98099999999999</v>
+        <v>64.471999999999994</v>
       </c>
       <c r="J30">
-        <v>2534.2220000000002</v>
+        <v>964.06500000000005</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1154.3710000000001</v>
+        <v>392.67500000000001</v>
       </c>
       <c r="O30">
-        <v>4425.768</v>
+        <v>1596.8150000000001</v>
       </c>
       <c r="P30">
-        <v>2834.2220000000002</v>
+        <v>965.40700000000004</v>
       </c>
       <c r="Q30">
-        <v>44.588000000000001</v>
+        <v>-0.96499999999999997</v>
       </c>
       <c r="R30">
-        <v>43069</v>
+        <v>39507</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>2553.0329999999999</v>
+        <v>2165.4630000000002</v>
       </c>
       <c r="U30">
-        <v>236.00200000000001</v>
+        <v>55.674999999999997</v>
       </c>
       <c r="V30">
-        <v>124.643</v>
+        <v>98.811999999999998</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>1.9119999999999999</v>
+        <v>9.2330000000000005</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-6.8520000000000003</v>
+        <v>-9.11</v>
       </c>
       <c r="AA30">
-        <v>137.10900000000001</v>
+        <v>81.828000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43159</v>
+        <v>39599</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>302.09500000000003</v>
+        <v>89.661000000000001</v>
       </c>
       <c r="D31">
-        <v>1589.1379999999999</v>
+        <v>1008.955</v>
       </c>
       <c r="E31">
-        <v>779.22</v>
+        <v>430.07799999999997</v>
       </c>
       <c r="F31">
-        <v>700.46299999999997</v>
+        <v>432.435</v>
       </c>
       <c r="G31">
-        <v>1979.576</v>
+        <v>1282.336</v>
       </c>
       <c r="H31">
-        <v>6928.5929999999998</v>
+        <v>3808.6010000000001</v>
       </c>
       <c r="I31">
-        <v>172.18100000000001</v>
+        <v>94.754999999999995</v>
       </c>
       <c r="J31">
-        <v>2534.7600000000002</v>
+        <v>942.73599999999999</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>917.57299999999998</v>
+        <v>367.24200000000002</v>
       </c>
       <c r="O31">
-        <v>4034.596</v>
+        <v>1554.47</v>
       </c>
       <c r="P31">
-        <v>2722.26</v>
+        <v>943.80600000000004</v>
       </c>
       <c r="Q31">
-        <v>-83.438999999999993</v>
+        <v>10.548999999999999</v>
       </c>
       <c r="R31">
-        <v>43159</v>
+        <v>39599</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="T31">
-        <v>2893.9969999999998</v>
+        <v>2254.1309999999999</v>
       </c>
       <c r="U31">
-        <v>152.56299999999999</v>
+        <v>66.224000000000004</v>
       </c>
       <c r="V31">
-        <v>281.85500000000002</v>
+        <v>174.81</v>
       </c>
       <c r="W31">
-        <v>-175.589</v>
+        <v>-70.831000000000003</v>
       </c>
       <c r="X31">
-        <v>-282.76900000000001</v>
+        <v>-91.992000000000004</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-11.608000000000001</v>
+        <v>-18.666</v>
       </c>
       <c r="AA31">
-        <v>302.09500000000003</v>
+        <v>89.661000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43251</v>
+        <v>39691</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>186.17099999999999</v>
+        <v>78.635999999999996</v>
       </c>
       <c r="D32">
-        <v>1669.55</v>
+        <v>1002.179</v>
       </c>
       <c r="E32">
-        <v>804.58299999999997</v>
+        <v>431.68099999999998</v>
       </c>
       <c r="F32">
-        <v>752.33799999999997</v>
+        <v>425.08300000000003</v>
       </c>
       <c r="G32">
-        <v>1977.932</v>
+        <v>1286.9480000000001</v>
       </c>
       <c r="H32">
-        <v>6958.2139999999999</v>
+        <v>3826.5990000000002</v>
       </c>
       <c r="I32">
-        <v>215.07400000000001</v>
+        <v>87.418000000000006</v>
       </c>
       <c r="J32">
-        <v>2535.3090000000002</v>
+        <v>949.58799999999997</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3259,81 +3379,81 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-0.26100000000000001</v>
       </c>
       <c r="N32">
-        <v>775.85699999999997</v>
+        <v>343.863</v>
       </c>
       <c r="O32">
-        <v>3941.6880000000001</v>
+        <v>1535.748</v>
       </c>
       <c r="P32">
-        <v>2535.3090000000002</v>
+        <v>950.54499999999996</v>
       </c>
       <c r="Q32">
-        <v>-13.839</v>
+        <v>-7.9809999999999999</v>
       </c>
       <c r="R32">
-        <v>43251</v>
+        <v>39691</v>
       </c>
       <c r="S32">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>3016.5259999999998</v>
+        <v>2290.8510000000001</v>
       </c>
       <c r="U32">
-        <v>138.72399999999999</v>
+        <v>58.243000000000002</v>
       </c>
       <c r="V32">
-        <v>303.29599999999999</v>
+        <v>88.337999999999994</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-271.85000000000002</v>
+        <v>-18.821000000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>37.375</v>
+        <v>-10.208</v>
       </c>
       <c r="AA32">
-        <v>186.17099999999999</v>
+        <v>78.635999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43343</v>
+        <v>39782</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>212.51499999999999</v>
+        <v>71.837999999999994</v>
       </c>
       <c r="D33">
-        <v>1697.9749999999999</v>
+        <v>985.18399999999997</v>
       </c>
       <c r="E33">
-        <v>838.19200000000001</v>
+        <v>433.83100000000002</v>
       </c>
       <c r="F33">
-        <v>774.71199999999999</v>
+        <v>415</v>
       </c>
       <c r="G33">
-        <v>2104.3780000000002</v>
+        <v>1245.2809999999999</v>
       </c>
       <c r="H33">
-        <v>7287.2039999999997</v>
+        <v>3766.7910000000002</v>
       </c>
       <c r="I33">
-        <v>214.011</v>
+        <v>101.06</v>
       </c>
       <c r="J33">
-        <v>2535.8589999999999</v>
+        <v>869.721</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>679.09400000000005</v>
+        <v>324.59800000000001</v>
       </c>
       <c r="O33">
-        <v>3941.2359999999999</v>
+        <v>1442.0450000000001</v>
       </c>
       <c r="P33">
-        <v>2540.0279999999998</v>
+        <v>870.55700000000002</v>
       </c>
       <c r="Q33">
-        <v>-20.367999999999999</v>
+        <v>4.17</v>
       </c>
       <c r="R33">
-        <v>43343</v>
+        <v>39782</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3345.9679999999998</v>
+        <v>2324.7460000000001</v>
       </c>
       <c r="U33">
-        <v>118.35599999999999</v>
+        <v>62.412999999999997</v>
       </c>
       <c r="V33">
-        <v>162.98500000000001</v>
+        <v>86.802999999999997</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-112.508</v>
+        <v>-79.861999999999995</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>1.5580000000000001</v>
+        <v>48.648000000000003</v>
       </c>
       <c r="AA33">
-        <v>212.51499999999999</v>
+        <v>71.837999999999994</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43434</v>
+        <v>39872</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>243.01300000000001</v>
+        <v>71.811000000000007</v>
       </c>
       <c r="D34">
-        <v>1718.268</v>
+        <v>908.63900000000001</v>
       </c>
       <c r="E34">
-        <v>904.06200000000001</v>
+        <v>384.91199999999998</v>
       </c>
       <c r="F34">
-        <v>775.15800000000002</v>
+        <v>376.43700000000001</v>
       </c>
       <c r="G34">
-        <v>2215.87</v>
+        <v>1201.922</v>
       </c>
       <c r="H34">
-        <v>7405.0829999999996</v>
+        <v>3719.444</v>
       </c>
       <c r="I34">
-        <v>211.9</v>
+        <v>75.677000000000007</v>
       </c>
       <c r="J34">
-        <v>2536.4079999999999</v>
+        <v>786.20399999999995</v>
       </c>
       <c r="K34">
-        <v>173.5</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1114.6859999999999</v>
+        <v>374.209</v>
       </c>
       <c r="O34">
-        <v>4377.8389999999999</v>
+        <v>1399.4580000000001</v>
       </c>
       <c r="P34">
-        <v>2709.9079999999999</v>
+        <v>786.79600000000005</v>
       </c>
       <c r="Q34">
-        <v>-29.876999999999999</v>
+        <v>-8.1620000000000008</v>
       </c>
       <c r="R34">
-        <v>43434</v>
+        <v>39872</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>3027.2440000000001</v>
+        <v>2319.9859999999999</v>
       </c>
       <c r="U34">
-        <v>88.478999999999999</v>
+        <v>54.250999999999998</v>
       </c>
       <c r="V34">
-        <v>181.58199999999999</v>
+        <v>164.578</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-194.87100000000001</v>
+        <v>-83.438000000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>57.713000000000001</v>
+        <v>-41.363999999999997</v>
       </c>
       <c r="AA34">
-        <v>243.01300000000001</v>
+        <v>71.811000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43524</v>
+        <v>39964</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>4.0720000000000001</v>
       </c>
       <c r="D35">
-        <v>1682.33</v>
+        <v>878.68299999999999</v>
       </c>
       <c r="E35">
-        <v>878.03700000000003</v>
+        <v>357.678</v>
       </c>
       <c r="F35">
-        <v>755.15300000000002</v>
+        <v>361.851</v>
       </c>
       <c r="G35">
-        <v>2223.7559999999999</v>
+        <v>1270.2729999999999</v>
       </c>
       <c r="H35">
-        <v>7433.6729999999998</v>
+        <v>3720.951</v>
       </c>
       <c r="I35">
-        <v>214.56700000000001</v>
+        <v>69.965000000000003</v>
       </c>
       <c r="J35">
-        <v>2536.9580000000001</v>
+        <v>786.05799999999999</v>
       </c>
       <c r="K35">
-        <v>217.5</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,164 +3631,164 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>994.351</v>
+        <v>300.86900000000003</v>
       </c>
       <c r="O35">
-        <v>4254.1809999999996</v>
+        <v>1353.5419999999999</v>
       </c>
       <c r="P35">
-        <v>2762.9180000000001</v>
+        <v>786.65599999999995</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>75.494</v>
       </c>
       <c r="R35">
-        <v>43524</v>
+        <v>39964</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="T35">
-        <v>3179.4920000000002</v>
+        <v>2367.4090000000001</v>
       </c>
       <c r="U35">
-        <v>80.858999999999995</v>
+        <v>129.745</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>183.803</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>-72.206999999999994</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>-72.227000000000004</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-9.0449999999999999</v>
       </c>
       <c r="AA35">
-        <v>203.334</v>
+        <v>4.0720000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43616</v>
+        <v>40056</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>226.119</v>
+        <v>53.984000000000002</v>
       </c>
       <c r="D36">
-        <v>1793.73</v>
+        <v>891.56899999999996</v>
       </c>
       <c r="E36">
-        <v>910.12</v>
+        <v>359.142</v>
       </c>
       <c r="F36">
-        <v>823.56500000000005</v>
+        <v>382.79500000000002</v>
       </c>
       <c r="G36">
-        <v>2236.2800000000002</v>
+        <v>1340.2539999999999</v>
       </c>
       <c r="H36">
-        <v>7436.6620000000003</v>
+        <v>3779.07</v>
       </c>
       <c r="I36">
-        <v>226.02</v>
+        <v>73.361999999999995</v>
       </c>
       <c r="J36">
-        <v>2573.9</v>
+        <v>785.899</v>
       </c>
       <c r="K36">
-        <v>312.26400000000001</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-0.17899999999999999</v>
       </c>
       <c r="N36">
-        <v>1127.7329999999999</v>
+        <v>314.613</v>
       </c>
       <c r="O36">
-        <v>4433.9409999999998</v>
+        <v>1354.029</v>
       </c>
       <c r="P36">
-        <v>2886.1640000000002</v>
+        <v>786.47699999999998</v>
       </c>
       <c r="Q36">
-        <v>15.786</v>
+        <v>97.566000000000003</v>
       </c>
       <c r="R36">
-        <v>43616</v>
+        <v>40056</v>
       </c>
       <c r="S36">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>3002.721</v>
+        <v>2425.0410000000002</v>
       </c>
       <c r="U36">
-        <v>96.644999999999996</v>
+        <v>227.31100000000001</v>
       </c>
       <c r="V36">
-        <v>397.14499999999998</v>
+        <v>144.89400000000001</v>
       </c>
       <c r="W36">
-        <v>-4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-308.00700000000001</v>
+        <v>-0.622</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-0.29699999999999999</v>
+        <v>-19.259</v>
       </c>
       <c r="AA36">
-        <v>226.119</v>
+        <v>53.984000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43708</v>
+        <v>40147</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>250.81200000000001</v>
+        <v>57.176000000000002</v>
       </c>
       <c r="D37">
-        <v>1811.1389999999999</v>
+        <v>884.50900000000001</v>
       </c>
       <c r="E37">
-        <v>917.53499999999997</v>
+        <v>377.15100000000001</v>
       </c>
       <c r="F37">
-        <v>849.14200000000005</v>
+        <v>369.84699999999998</v>
       </c>
       <c r="G37">
-        <v>2289.8180000000002</v>
+        <v>1465.17</v>
       </c>
       <c r="H37">
-        <v>7661.9</v>
+        <v>3886.348</v>
       </c>
       <c r="I37">
-        <v>237.24199999999999</v>
+        <v>73.573999999999998</v>
       </c>
       <c r="J37">
-        <v>2538.0569999999998</v>
+        <v>785.74800000000005</v>
       </c>
       <c r="K37">
-        <v>338.77600000000001</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1122.8820000000001</v>
+        <v>345.56</v>
       </c>
       <c r="O37">
-        <v>4611.1940000000004</v>
+        <v>1390.2629999999999</v>
       </c>
       <c r="P37">
-        <v>3045.527</v>
+        <v>786.33600000000001</v>
       </c>
       <c r="Q37">
-        <v>5.4859999999999998</v>
+        <v>114.703</v>
       </c>
       <c r="R37">
-        <v>43708</v>
+        <v>40147</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3050.7060000000001</v>
+        <v>2496.085</v>
       </c>
       <c r="U37">
-        <v>102.131</v>
+        <v>342.01400000000001</v>
       </c>
       <c r="V37">
-        <v>276.90100000000001</v>
+        <v>149.28100000000001</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-193.607</v>
+        <v>-1.375</v>
       </c>
       <c r="Y37">
-        <v>125.684</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-9.391</v>
+        <v>-7.9489999999999998</v>
       </c>
       <c r="AA37">
-        <v>250.81200000000001</v>
+        <v>57.176000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43799</v>
+        <v>40237</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>246.12</v>
+        <v>48.981999999999999</v>
       </c>
       <c r="D38">
-        <v>1843.749</v>
+        <v>861.81200000000001</v>
       </c>
       <c r="E38">
-        <v>949.12199999999996</v>
+        <v>356.45299999999997</v>
       </c>
       <c r="F38">
-        <v>852.39099999999996</v>
+        <v>359.60700000000003</v>
       </c>
       <c r="G38">
-        <v>2490.2869999999998</v>
+        <v>1515.7449999999999</v>
       </c>
       <c r="H38">
-        <v>7887.3370000000004</v>
+        <v>3959.9090000000001</v>
       </c>
       <c r="I38">
-        <v>254.61099999999999</v>
+        <v>80.406000000000006</v>
       </c>
       <c r="J38">
-        <v>2538.6060000000002</v>
+        <v>785.59500000000003</v>
       </c>
       <c r="K38">
-        <v>199.78800000000001</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1297.251</v>
+        <v>439.24900000000002</v>
       </c>
       <c r="O38">
-        <v>4782.3670000000002</v>
+        <v>1484.721</v>
       </c>
       <c r="P38">
-        <v>2913.2370000000001</v>
+        <v>786.19299999999998</v>
       </c>
       <c r="Q38">
-        <v>124.404</v>
+        <v>64.489000000000004</v>
       </c>
       <c r="R38">
-        <v>43799</v>
+        <v>40237</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>3104.97</v>
+        <v>2475.1880000000001</v>
       </c>
       <c r="U38">
-        <v>226.535</v>
+        <v>406.50299999999999</v>
       </c>
       <c r="V38">
-        <v>294.45</v>
+        <v>135.01400000000001</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-116.38500000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="Y38">
-        <v>130.58000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-0.73</v>
+        <v>-8.6</v>
       </c>
       <c r="AA38">
-        <v>246.12</v>
+        <v>48.981999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43890</v>
+        <v>40329</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>234.52</v>
+        <v>55.478000000000002</v>
       </c>
       <c r="D39">
-        <v>1810.6479999999999</v>
+        <v>909.44899999999996</v>
       </c>
       <c r="E39">
-        <v>942.85299999999995</v>
+        <v>362.21899999999999</v>
       </c>
       <c r="F39">
-        <v>824.39499999999998</v>
+        <v>385.56799999999998</v>
       </c>
       <c r="G39">
-        <v>2497.7060000000001</v>
+        <v>1520.8620000000001</v>
       </c>
       <c r="H39">
-        <v>7901.98</v>
+        <v>3969.7359999999999</v>
       </c>
       <c r="I39">
-        <v>243.24799999999999</v>
+        <v>71.747</v>
       </c>
       <c r="J39">
-        <v>2656.0650000000001</v>
+        <v>785.44399999999996</v>
       </c>
       <c r="K39">
-        <v>199.8</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1066.646</v>
+        <v>383.68200000000002</v>
       </c>
       <c r="O39">
-        <v>4577.6710000000003</v>
+        <v>1435.7070000000001</v>
       </c>
       <c r="P39">
-        <v>3026.902</v>
+        <v>786.053</v>
       </c>
       <c r="Q39">
-        <v>7.9059999999999997</v>
+        <v>4.7779999999999996</v>
       </c>
       <c r="R39">
-        <v>43890</v>
+        <v>40329</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="T39">
-        <v>3324.3090000000002</v>
+        <v>2534.029</v>
       </c>
       <c r="U39">
-        <v>234.441</v>
+        <v>411.28100000000001</v>
       </c>
       <c r="V39">
-        <v>363.19799999999998</v>
+        <v>136.465</v>
       </c>
       <c r="W39">
-        <v>-268.04199999999997</v>
+        <v>-73.959999999999994</v>
       </c>
       <c r="X39">
-        <v>-250.3</v>
+        <v>-74.691000000000003</v>
       </c>
       <c r="Y39">
-        <v>126.994</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-0.34</v>
+        <v>-10.749000000000001</v>
       </c>
       <c r="AA39">
-        <v>234.52</v>
+        <v>55.478000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43982</v>
+        <v>40421</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>144.58500000000001</v>
+        <v>61.277000000000001</v>
       </c>
       <c r="D40">
-        <v>1619.5840000000001</v>
+        <v>923.904</v>
       </c>
       <c r="E40">
-        <v>870.36900000000003</v>
+        <v>383.39100000000002</v>
       </c>
       <c r="F40">
-        <v>707.82</v>
+        <v>393.67099999999999</v>
       </c>
       <c r="G40">
-        <v>2309.6990000000001</v>
+        <v>1372.153</v>
       </c>
       <c r="H40">
-        <v>7669.8850000000002</v>
+        <v>3890.904</v>
       </c>
       <c r="I40">
-        <v>230.995</v>
+        <v>81.307000000000002</v>
       </c>
       <c r="J40">
-        <v>2705.3910000000001</v>
+        <v>785.68200000000002</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3923,81 +4043,81 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-0.14799999999999999</v>
       </c>
       <c r="N40">
-        <v>885.19500000000005</v>
+        <v>359.47899999999998</v>
       </c>
       <c r="O40">
-        <v>4434.683</v>
+        <v>1420.9259999999999</v>
       </c>
       <c r="P40">
-        <v>2871.1170000000002</v>
+        <v>787.447</v>
       </c>
       <c r="Q40">
-        <v>-89.039000000000001</v>
+        <v>-120.63500000000001</v>
       </c>
       <c r="R40">
-        <v>43982</v>
+        <v>40421</v>
       </c>
       <c r="S40">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>3235.2020000000002</v>
+        <v>2469.9780000000001</v>
       </c>
       <c r="U40">
-        <v>145.40199999999999</v>
+        <v>290.64600000000002</v>
       </c>
       <c r="V40">
-        <v>356.93400000000003</v>
+        <v>35.298000000000002</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-394.91500000000002</v>
+        <v>-127.761</v>
       </c>
       <c r="Y40">
-        <v>122.69499999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0.43</v>
+        <v>71.236999999999995</v>
       </c>
       <c r="AA40">
-        <v>144.58500000000001</v>
+        <v>61.277000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44074</v>
+        <v>40512</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>300.005</v>
+        <v>55.866</v>
       </c>
       <c r="D41">
-        <v>1746.575</v>
+        <v>936.56600000000003</v>
       </c>
       <c r="E41">
-        <v>866.41399999999999</v>
+        <v>402.35</v>
       </c>
       <c r="F41">
-        <v>826.20100000000002</v>
+        <v>390.64800000000002</v>
       </c>
       <c r="G41">
-        <v>2666.1770000000001</v>
+        <v>1354.846</v>
       </c>
       <c r="H41">
-        <v>8043.3810000000003</v>
+        <v>3928.2950000000001</v>
       </c>
       <c r="I41">
-        <v>252.51300000000001</v>
+        <v>92.206000000000003</v>
       </c>
       <c r="J41">
-        <v>2446.498</v>
+        <v>785.22199999999998</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,129 +4129,3449 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1093.3499999999999</v>
+        <v>468.79500000000002</v>
       </c>
       <c r="O41">
-        <v>4438.5770000000002</v>
+        <v>1533.182</v>
       </c>
       <c r="P41">
-        <v>2861.4470000000001</v>
+        <v>787.03899999999999</v>
       </c>
       <c r="Q41">
-        <v>276.14</v>
+        <v>-29.693000000000001</v>
       </c>
       <c r="R41">
-        <v>44074</v>
+        <v>40512</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3604.8040000000001</v>
+        <v>2395.1129999999998</v>
       </c>
       <c r="U41">
-        <v>421.54199999999997</v>
+        <v>260.95299999999997</v>
       </c>
       <c r="V41">
-        <v>312.29199999999997</v>
+        <v>73.930999999999997</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>2.2429999999999999</v>
+        <v>-72.760000000000005</v>
       </c>
       <c r="Y41">
-        <v>121.727</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-4.9400000000000004</v>
+        <v>51.573999999999998</v>
       </c>
       <c r="AA41">
-        <v>300.005</v>
+        <v>55.866</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44165</v>
+        <v>40602</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>59.07</v>
+      </c>
+      <c r="D42">
+        <v>937.827</v>
+      </c>
+      <c r="E42">
+        <v>416.29500000000002</v>
+      </c>
+      <c r="F42">
+        <v>391.92099999999999</v>
+      </c>
+      <c r="G42">
+        <v>1322.9380000000001</v>
+      </c>
+      <c r="H42">
+        <v>3972.07</v>
+      </c>
+      <c r="I42">
+        <v>101.935</v>
+      </c>
+      <c r="J42">
+        <v>806.447</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>391.63600000000002</v>
+      </c>
+      <c r="O42">
+        <v>1499.1279999999999</v>
+      </c>
+      <c r="P42">
+        <v>808.07799999999997</v>
+      </c>
+      <c r="Q42">
+        <v>-76.221999999999994</v>
+      </c>
+      <c r="R42">
+        <v>40602</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2472.942</v>
+      </c>
+      <c r="U42">
+        <v>184.73099999999999</v>
+      </c>
+      <c r="V42">
+        <v>98.725999999999999</v>
+      </c>
+      <c r="W42">
+        <v>-71.811999999999998</v>
+      </c>
+      <c r="X42">
+        <v>-51.548999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-8.1059999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>59.07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>70.775999999999996</v>
+      </c>
+      <c r="D43">
+        <v>1012.087</v>
+      </c>
+      <c r="E43">
+        <v>429.13099999999997</v>
+      </c>
+      <c r="F43">
+        <v>433.04700000000003</v>
+      </c>
+      <c r="G43">
+        <v>1700.777</v>
+      </c>
+      <c r="H43">
+        <v>4351.9399999999996</v>
+      </c>
+      <c r="I43">
+        <v>110.279</v>
+      </c>
+      <c r="J43">
+        <v>1284.79</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>434.13900000000001</v>
+      </c>
+      <c r="O43">
+        <v>2049.2910000000002</v>
+      </c>
+      <c r="P43">
+        <v>1286.125</v>
+      </c>
+      <c r="Q43">
+        <v>253.375</v>
+      </c>
+      <c r="R43">
+        <v>40694</v>
+      </c>
+      <c r="S43">
+        <v>30000</v>
+      </c>
+      <c r="T43">
+        <v>2302.6489999999999</v>
+      </c>
+      <c r="U43">
+        <v>438.10599999999999</v>
+      </c>
+      <c r="V43">
+        <v>132.93100000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>232.03200000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-53.956000000000003</v>
+      </c>
+      <c r="AA43">
+        <v>70.775999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>68.638000000000005</v>
+      </c>
+      <c r="D44">
+        <v>1017.18</v>
+      </c>
+      <c r="E44">
+        <v>439.09</v>
+      </c>
+      <c r="F44">
+        <v>439.04</v>
+      </c>
+      <c r="G44">
+        <v>1482.615</v>
+      </c>
+      <c r="H44">
+        <v>4127.8919999999998</v>
+      </c>
+      <c r="I44">
+        <v>100.745</v>
+      </c>
+      <c r="J44">
+        <v>1059.6479999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-0.44400000000000001</v>
+      </c>
+      <c r="N44">
+        <v>618.64599999999996</v>
+      </c>
+      <c r="O44">
+        <v>2013.4069999999999</v>
+      </c>
+      <c r="P44">
+        <v>1285.681</v>
+      </c>
+      <c r="Q44">
+        <v>-287.79399999999998</v>
+      </c>
+      <c r="R44">
+        <v>40786</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2114.4850000000001</v>
+      </c>
+      <c r="U44">
+        <v>150.31200000000001</v>
+      </c>
+      <c r="V44">
+        <v>56.561999999999998</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-262.15699999999998</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-43.584000000000003</v>
+      </c>
+      <c r="AA44">
+        <v>68.638000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40877</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="D45">
+        <v>1019.126</v>
+      </c>
+      <c r="E45">
+        <v>447.35</v>
+      </c>
+      <c r="F45">
+        <v>429.79700000000003</v>
+      </c>
+      <c r="G45">
+        <v>1591.8679999999999</v>
+      </c>
+      <c r="H45">
+        <v>4215.3119999999999</v>
+      </c>
+      <c r="I45">
+        <v>111.136</v>
+      </c>
+      <c r="J45">
+        <v>1059.49</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>720.20100000000002</v>
+      </c>
+      <c r="O45">
+        <v>2112.6930000000002</v>
+      </c>
+      <c r="P45">
+        <v>1285.222</v>
+      </c>
+      <c r="Q45">
+        <v>57.46</v>
+      </c>
+      <c r="R45">
+        <v>40877</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2102.6190000000001</v>
+      </c>
+      <c r="U45">
+        <v>207.77199999999999</v>
+      </c>
+      <c r="V45">
+        <v>119.396</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0.104</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-9.7810000000000006</v>
+      </c>
+      <c r="AA45">
+        <v>74.349999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>76.034999999999997</v>
+      </c>
+      <c r="D46">
+        <v>1012.112</v>
+      </c>
+      <c r="E46">
+        <v>439.65</v>
+      </c>
+      <c r="F46">
+        <v>425.90300000000002</v>
+      </c>
+      <c r="G46">
+        <v>1625.5360000000001</v>
+      </c>
+      <c r="H46">
+        <v>4253.1670000000004</v>
+      </c>
+      <c r="I46">
+        <v>115.566</v>
+      </c>
+      <c r="J46">
+        <v>1059.2760000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>648.56100000000004</v>
+      </c>
+      <c r="O46">
+        <v>2056.54</v>
+      </c>
+      <c r="P46">
+        <v>1284.9090000000001</v>
+      </c>
+      <c r="Q46">
+        <v>10.211</v>
+      </c>
+      <c r="R46">
+        <v>40968</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2196.627</v>
+      </c>
+      <c r="U46">
+        <v>217.983</v>
+      </c>
+      <c r="V46">
+        <v>131.756</v>
+      </c>
+      <c r="W46">
+        <v>-70.819999999999993</v>
+      </c>
+      <c r="X46">
+        <v>-70.918999999999997</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-3.0840000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>76.034999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>78.614000000000004</v>
+      </c>
+      <c r="D47">
+        <v>1053.5820000000001</v>
+      </c>
+      <c r="E47">
+        <v>450.86099999999999</v>
+      </c>
+      <c r="F47">
+        <v>443.86799999999999</v>
+      </c>
+      <c r="G47">
+        <v>1538.086</v>
+      </c>
+      <c r="H47">
+        <v>4165.7060000000001</v>
+      </c>
+      <c r="I47">
+        <v>94.84</v>
+      </c>
+      <c r="J47">
+        <v>1059.1659999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>675.69100000000003</v>
+      </c>
+      <c r="O47">
+        <v>2026.5709999999999</v>
+      </c>
+      <c r="P47">
+        <v>1284.8019999999999</v>
+      </c>
+      <c r="Q47">
+        <v>121.842</v>
+      </c>
+      <c r="R47">
+        <v>41060</v>
+      </c>
+      <c r="S47">
+        <v>30000</v>
+      </c>
+      <c r="T47">
+        <v>2139.1350000000002</v>
+      </c>
+      <c r="U47">
+        <v>339.82499999999999</v>
+      </c>
+      <c r="V47">
+        <v>162.148</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-127.60299999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>135.81</v>
+      </c>
+      <c r="AA47">
+        <v>78.614000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>76.733000000000004</v>
+      </c>
+      <c r="D48">
+        <v>1051.325</v>
+      </c>
+      <c r="E48">
+        <v>459.30200000000002</v>
+      </c>
+      <c r="F48">
+        <v>445.875</v>
+      </c>
+      <c r="G48">
+        <v>1523.877</v>
+      </c>
+      <c r="H48">
+        <v>4152.2349999999997</v>
+      </c>
+      <c r="I48">
+        <v>110.90600000000001</v>
+      </c>
+      <c r="J48">
+        <v>1309.0119999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-225.154</v>
+      </c>
+      <c r="N48">
+        <v>384.11099999999999</v>
+      </c>
+      <c r="O48">
+        <v>1997.82</v>
+      </c>
+      <c r="P48">
+        <v>1309.6479999999999</v>
+      </c>
+      <c r="Q48">
+        <v>-20.608000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41152</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2154.415</v>
+      </c>
+      <c r="U48">
+        <v>319.21699999999998</v>
+      </c>
+      <c r="V48">
+        <v>94.864999999999995</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-55.478999999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-12.25</v>
+      </c>
+      <c r="AA48">
+        <v>76.733000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>78.027000000000001</v>
+      </c>
+      <c r="D49">
+        <v>1060.386</v>
+      </c>
+      <c r="E49">
+        <v>479.10599999999999</v>
+      </c>
+      <c r="F49">
+        <v>433.63600000000002</v>
+      </c>
+      <c r="G49">
+        <v>1519.662</v>
+      </c>
+      <c r="H49">
+        <v>4217.8819999999996</v>
+      </c>
+      <c r="I49">
+        <v>118.53400000000001</v>
+      </c>
+      <c r="J49">
+        <v>1308.829</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>555.17899999999997</v>
+      </c>
+      <c r="O49">
+        <v>2137.2379999999998</v>
+      </c>
+      <c r="P49">
+        <v>1309.49</v>
+      </c>
+      <c r="Q49">
+        <v>-76.73</v>
+      </c>
+      <c r="R49">
+        <v>41243</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2080.6439999999998</v>
+      </c>
+      <c r="U49">
+        <v>242.48699999999999</v>
+      </c>
+      <c r="V49">
+        <v>132.398</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-79.126999999999995</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-26.350999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>78.027000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>74.704999999999998</v>
+      </c>
+      <c r="D50">
+        <v>1075.674</v>
+      </c>
+      <c r="E50">
+        <v>495.12400000000002</v>
+      </c>
+      <c r="F50">
+        <v>441.94099999999997</v>
+      </c>
+      <c r="G50">
+        <v>1509.452</v>
+      </c>
+      <c r="H50">
+        <v>4221.299</v>
+      </c>
+      <c r="I50">
+        <v>109.06399999999999</v>
+      </c>
+      <c r="J50">
+        <v>1308.6559999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>500.75200000000001</v>
+      </c>
+      <c r="O50">
+        <v>2091.0529999999999</v>
+      </c>
+      <c r="P50">
+        <v>1309.33</v>
+      </c>
+      <c r="Q50">
+        <v>-25.016999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41333</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2130.2460000000001</v>
+      </c>
+      <c r="U50">
+        <v>217.47</v>
+      </c>
+      <c r="V50">
+        <v>141.08000000000001</v>
+      </c>
+      <c r="W50">
+        <v>-79.744</v>
+      </c>
+      <c r="X50">
+        <v>-101.91500000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="AA50">
+        <v>74.704999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>85.977000000000004</v>
+      </c>
+      <c r="D51">
+        <v>1129.086</v>
+      </c>
+      <c r="E51">
+        <v>496.04899999999998</v>
+      </c>
+      <c r="F51">
+        <v>467.21499999999997</v>
+      </c>
+      <c r="G51">
+        <v>1624.826</v>
+      </c>
+      <c r="H51">
+        <v>4345.6319999999996</v>
+      </c>
+      <c r="I51">
+        <v>121.029</v>
+      </c>
+      <c r="J51">
+        <v>1300.979</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>556.25599999999997</v>
+      </c>
+      <c r="O51">
+        <v>2144.14</v>
+      </c>
+      <c r="P51">
+        <v>1309.1659999999999</v>
+      </c>
+      <c r="Q51">
+        <v>134.803</v>
+      </c>
+      <c r="R51">
+        <v>41425</v>
+      </c>
+      <c r="S51">
+        <v>32000</v>
+      </c>
+      <c r="T51">
+        <v>2201.4920000000002</v>
+      </c>
+      <c r="U51">
+        <v>352.27300000000002</v>
+      </c>
+      <c r="V51">
+        <v>184.405</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-19.536999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>20.760999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>85.977000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>77.754000000000005</v>
+      </c>
+      <c r="D52">
+        <v>1100.2460000000001</v>
+      </c>
+      <c r="E52">
+        <v>511.642</v>
+      </c>
+      <c r="F52">
+        <v>456.09500000000003</v>
+      </c>
+      <c r="G52">
+        <v>1572.289</v>
+      </c>
+      <c r="H52">
+        <v>4311.1769999999997</v>
+      </c>
+      <c r="I52">
+        <v>124.952</v>
+      </c>
+      <c r="J52">
+        <v>1300.799</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="N52">
+        <v>515.69500000000005</v>
+      </c>
+      <c r="O52">
+        <v>2115.1660000000002</v>
+      </c>
+      <c r="P52">
+        <v>1308.999</v>
+      </c>
+      <c r="Q52">
+        <v>-73.602999999999994</v>
+      </c>
+      <c r="R52">
+        <v>41517</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2196.011</v>
+      </c>
+      <c r="U52">
+        <v>278.67</v>
+      </c>
+      <c r="V52">
+        <v>82.558999999999997</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-88.933000000000007</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="AA52">
+        <v>77.754000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>84.861999999999995</v>
+      </c>
+      <c r="D53">
+        <v>1123.931</v>
+      </c>
+      <c r="E53">
+        <v>520.52300000000002</v>
+      </c>
+      <c r="F53">
+        <v>467.07900000000001</v>
+      </c>
+      <c r="G53">
+        <v>1618.7819999999999</v>
+      </c>
+      <c r="H53">
+        <v>4365.3980000000001</v>
+      </c>
+      <c r="I53">
+        <v>103.242</v>
+      </c>
+      <c r="J53">
+        <v>1300.615</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>614.56100000000004</v>
+      </c>
+      <c r="O53">
+        <v>2217.4259999999999</v>
+      </c>
+      <c r="P53">
+        <v>1301.329</v>
+      </c>
+      <c r="Q53">
+        <v>30.664000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41608</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2147.9720000000002</v>
+      </c>
+      <c r="U53">
+        <v>309.334</v>
+      </c>
+      <c r="V53">
+        <v>139.721</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-55.47</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-12.590999999999999</v>
+      </c>
+      <c r="AA53">
+        <v>84.861999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>84.602000000000004</v>
+      </c>
+      <c r="D54">
+        <v>1110.973</v>
+      </c>
+      <c r="E54">
+        <v>529.66800000000001</v>
+      </c>
+      <c r="F54">
+        <v>469.63400000000001</v>
+      </c>
+      <c r="G54">
+        <v>1664.9090000000001</v>
+      </c>
+      <c r="H54">
+        <v>4400.4409999999998</v>
+      </c>
+      <c r="I54">
+        <v>117.336</v>
+      </c>
+      <c r="J54">
+        <v>1300.5229999999999</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>552.80200000000002</v>
+      </c>
+      <c r="O54">
+        <v>2156.4079999999999</v>
+      </c>
+      <c r="P54">
+        <v>1301.1559999999999</v>
+      </c>
+      <c r="Q54">
+        <v>39.524999999999999</v>
+      </c>
+      <c r="R54">
+        <v>41698</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2244.0329999999999</v>
+      </c>
+      <c r="U54">
+        <v>348.85899999999998</v>
+      </c>
+      <c r="V54">
+        <v>163.49299999999999</v>
+      </c>
+      <c r="W54">
+        <v>-93.313999999999993</v>
+      </c>
+      <c r="X54">
+        <v>-81.757999999999996</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-3.4009999999999998</v>
+      </c>
+      <c r="AA54">
+        <v>84.602000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>127.224</v>
+      </c>
+      <c r="D55">
+        <v>1134.415</v>
+      </c>
+      <c r="E55">
+        <v>508.42700000000002</v>
+      </c>
+      <c r="F55">
+        <v>480.846</v>
+      </c>
+      <c r="G55">
+        <v>1805.681</v>
+      </c>
+      <c r="H55">
+        <v>4462.4520000000002</v>
+      </c>
+      <c r="I55">
+        <v>150.07</v>
+      </c>
+      <c r="J55">
+        <v>1300.4770000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>630.13099999999997</v>
+      </c>
+      <c r="O55">
+        <v>2269.5940000000001</v>
+      </c>
+      <c r="P55">
+        <v>1300.98</v>
+      </c>
+      <c r="Q55">
+        <v>164.429</v>
+      </c>
+      <c r="R55">
+        <v>41790</v>
+      </c>
+      <c r="S55">
+        <v>33000</v>
+      </c>
+      <c r="T55">
+        <v>2192.8580000000002</v>
+      </c>
+      <c r="U55">
+        <v>513.28800000000001</v>
+      </c>
+      <c r="V55">
+        <v>220.196</v>
+      </c>
+      <c r="W55">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="X55">
+        <v>-203.57400000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>4.0380000000000003</v>
+      </c>
+      <c r="AA55">
+        <v>127.224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>110.108</v>
+      </c>
+      <c r="D56">
+        <v>1102.077</v>
+      </c>
+      <c r="E56">
+        <v>489.21100000000001</v>
+      </c>
+      <c r="F56">
+        <v>477.94600000000003</v>
+      </c>
+      <c r="G56">
+        <v>2012.9490000000001</v>
+      </c>
+      <c r="H56">
+        <v>4556.2700000000004</v>
+      </c>
+      <c r="I56">
+        <v>141.79499999999999</v>
+      </c>
+      <c r="J56">
+        <v>1300</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-0.18</v>
+      </c>
+      <c r="N56">
+        <v>636.01099999999997</v>
+      </c>
+      <c r="O56">
+        <v>2284.2959999999998</v>
+      </c>
+      <c r="P56">
+        <v>1300</v>
+      </c>
+      <c r="Q56">
+        <v>68.165000000000006</v>
+      </c>
+      <c r="R56">
+        <v>41882</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2271.9740000000002</v>
+      </c>
+      <c r="U56">
+        <v>581.45299999999997</v>
+      </c>
+      <c r="V56">
+        <v>148.20099999999999</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-41.198</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>22.952000000000002</v>
+      </c>
+      <c r="AA56">
+        <v>110.108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>120.41200000000001</v>
+      </c>
+      <c r="D57">
+        <v>1123.3789999999999</v>
+      </c>
+      <c r="E57">
+        <v>510.15300000000002</v>
+      </c>
+      <c r="F57">
+        <v>481.42399999999998</v>
+      </c>
+      <c r="G57">
+        <v>2145.98</v>
+      </c>
+      <c r="H57">
+        <v>4697.5709999999999</v>
+      </c>
+      <c r="I57">
+        <v>171.62899999999999</v>
+      </c>
+      <c r="J57">
+        <v>1300</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>851.76400000000001</v>
+      </c>
+      <c r="O57">
+        <v>2494.2370000000001</v>
+      </c>
+      <c r="P57">
+        <v>1300</v>
+      </c>
+      <c r="Q57">
+        <v>245.27099999999999</v>
+      </c>
+      <c r="R57">
+        <v>41973</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2203.3339999999998</v>
+      </c>
+      <c r="U57">
+        <v>826.72400000000005</v>
+      </c>
+      <c r="V57">
+        <v>144.37200000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-4.9969999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>120.41200000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>94.882999999999996</v>
+      </c>
+      <c r="D58">
+        <v>1108.847</v>
+      </c>
+      <c r="E58">
+        <v>497.97800000000001</v>
+      </c>
+      <c r="F58">
+        <v>475.30700000000002</v>
+      </c>
+      <c r="G58">
+        <v>1710.125</v>
+      </c>
+      <c r="H58">
+        <v>4266.3459999999995</v>
+      </c>
+      <c r="I58">
+        <v>111.952</v>
+      </c>
+      <c r="J58">
+        <v>1300</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>579.23099999999999</v>
+      </c>
+      <c r="O58">
+        <v>2218.6799999999998</v>
+      </c>
+      <c r="P58">
+        <v>1300</v>
+      </c>
+      <c r="Q58">
+        <v>-468.404</v>
+      </c>
+      <c r="R58">
+        <v>42063</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2047.6659999999999</v>
+      </c>
+      <c r="U58">
+        <v>358.32</v>
+      </c>
+      <c r="V58">
+        <v>85.072999999999993</v>
+      </c>
+      <c r="W58">
+        <v>-100.9705</v>
+      </c>
+      <c r="X58">
+        <v>-442.24299999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-49.258000000000003</v>
+      </c>
+      <c r="AA58">
+        <v>94.882999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>105.215</v>
+      </c>
+      <c r="D59">
+        <v>1142.5830000000001</v>
+      </c>
+      <c r="E59">
+        <v>496.13</v>
+      </c>
+      <c r="F59">
+        <v>486.66</v>
+      </c>
+      <c r="G59">
+        <v>1735.807</v>
+      </c>
+      <c r="H59">
+        <v>4192.46</v>
+      </c>
+      <c r="I59">
+        <v>109.607</v>
+      </c>
+      <c r="J59">
+        <v>1300</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>508.66899999999998</v>
+      </c>
+      <c r="O59">
+        <v>2260.0050000000001</v>
+      </c>
+      <c r="P59">
+        <v>1300</v>
+      </c>
+      <c r="Q59">
+        <v>58.753</v>
+      </c>
+      <c r="R59">
+        <v>42155</v>
+      </c>
+      <c r="S59">
+        <v>32000</v>
+      </c>
+      <c r="T59">
+        <v>1932.4549999999999</v>
+      </c>
+      <c r="U59">
+        <v>417.07299999999998</v>
+      </c>
+      <c r="V59">
+        <v>202.63</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-230.61</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>27.702999999999999</v>
+      </c>
+      <c r="AA59">
+        <v>105.215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>100.181</v>
+      </c>
+      <c r="D60">
+        <v>1198.8900000000001</v>
+      </c>
+      <c r="E60">
+        <v>531.12699999999995</v>
+      </c>
+      <c r="F60">
+        <v>524.14400000000001</v>
+      </c>
+      <c r="G60">
+        <v>1733.952</v>
+      </c>
+      <c r="H60">
+        <v>4122.9489999999996</v>
+      </c>
+      <c r="I60">
+        <v>131.95599999999999</v>
+      </c>
+      <c r="J60">
+        <v>1050</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="N60">
+        <v>959.32600000000002</v>
+      </c>
+      <c r="O60">
+        <v>2274.2800000000002</v>
+      </c>
+      <c r="P60">
+        <v>1300</v>
+      </c>
+      <c r="Q60">
+        <v>-270.21300000000002</v>
+      </c>
+      <c r="R60">
+        <v>42247</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1848.6690000000001</v>
+      </c>
+      <c r="U60">
+        <v>146.86000000000001</v>
+      </c>
+      <c r="V60">
+        <v>143.083</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-209.71899999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-43.113</v>
+      </c>
+      <c r="AA60">
+        <v>100.181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>345.1</v>
+      </c>
+      <c r="D61">
+        <v>1219.08</v>
+      </c>
+      <c r="E61">
+        <v>549.19000000000005</v>
+      </c>
+      <c r="F61">
+        <v>527.4</v>
+      </c>
+      <c r="G61">
+        <v>2043.28</v>
+      </c>
+      <c r="H61">
+        <v>4450.7920000000004</v>
+      </c>
+      <c r="I61">
+        <v>134.84299999999999</v>
+      </c>
+      <c r="J61">
+        <v>1050</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1130.981</v>
+      </c>
+      <c r="O61">
+        <v>2526.2640000000001</v>
+      </c>
+      <c r="P61">
+        <v>1300</v>
+      </c>
+      <c r="Q61">
+        <v>459.92500000000001</v>
+      </c>
+      <c r="R61">
+        <v>42338</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1924.528</v>
+      </c>
+      <c r="U61">
+        <v>606.78499999999997</v>
+      </c>
+      <c r="V61">
+        <v>121.95399999999999</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-174.5</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-16.146999999999998</v>
+      </c>
+      <c r="AA61">
+        <v>345.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>117.34099999999999</v>
+      </c>
+      <c r="D62">
+        <v>1216.0830000000001</v>
+      </c>
+      <c r="E62">
+        <v>550.74800000000005</v>
+      </c>
+      <c r="F62">
+        <v>524.60799999999995</v>
+      </c>
+      <c r="G62">
+        <v>1758.8240000000001</v>
+      </c>
+      <c r="H62">
+        <v>4231.21</v>
+      </c>
+      <c r="I62">
+        <v>151.833</v>
+      </c>
+      <c r="J62">
+        <v>1072.4380000000001</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>858.80399999999997</v>
+      </c>
+      <c r="O62">
+        <v>2281.1039999999998</v>
+      </c>
+      <c r="P62">
+        <v>1322.4380000000001</v>
+      </c>
+      <c r="Q62">
+        <v>-291.66899999999998</v>
+      </c>
+      <c r="R62">
+        <v>42429</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>1950.106</v>
+      </c>
+      <c r="U62">
+        <v>315.11599999999999</v>
+      </c>
+      <c r="V62">
+        <v>32.116999999999997</v>
+      </c>
+      <c r="W62">
+        <v>-115.273</v>
+      </c>
+      <c r="X62">
+        <v>-210.096</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>2.2429999999999999</v>
+      </c>
+      <c r="AA62">
+        <v>117.34099999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>130.898</v>
+      </c>
+      <c r="D63">
+        <v>1161.7190000000001</v>
+      </c>
+      <c r="E63">
+        <v>546.48800000000006</v>
+      </c>
+      <c r="F63">
+        <v>525.18799999999999</v>
+      </c>
+      <c r="G63">
+        <v>1590.579</v>
+      </c>
+      <c r="H63">
+        <v>4098.8149999999996</v>
+      </c>
+      <c r="I63">
+        <v>110.94</v>
+      </c>
+      <c r="J63">
+        <v>1064.05</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>815.55499999999995</v>
+      </c>
+      <c r="O63">
+        <v>2256.1559999999999</v>
+      </c>
+      <c r="P63">
+        <v>1314.05</v>
+      </c>
+      <c r="Q63">
+        <v>-175.75899999999999</v>
+      </c>
+      <c r="R63">
+        <v>42521</v>
+      </c>
+      <c r="S63">
+        <v>35000</v>
+      </c>
+      <c r="T63">
+        <v>1842.6590000000001</v>
+      </c>
+      <c r="U63">
+        <v>139.357</v>
+      </c>
+      <c r="V63">
+        <v>168.691</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-272.40899999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-2.95</v>
+      </c>
+      <c r="AA63">
+        <v>130.898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>138.09100000000001</v>
+      </c>
+      <c r="D64">
+        <v>1266.6500000000001</v>
+      </c>
+      <c r="E64">
+        <v>586.37199999999996</v>
+      </c>
+      <c r="F64">
+        <v>576.42700000000002</v>
+      </c>
+      <c r="G64">
+        <v>1594.748</v>
+      </c>
+      <c r="H64">
+        <v>4167.1450000000004</v>
+      </c>
+      <c r="I64">
+        <v>129.65</v>
+      </c>
+      <c r="J64">
+        <v>1083.4549999999999</v>
+      </c>
+      <c r="K64">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-250</v>
+      </c>
+      <c r="N64">
+        <v>710.85900000000004</v>
+      </c>
+      <c r="O64">
+        <v>2179.7429999999999</v>
+      </c>
+      <c r="P64">
+        <v>1247.2550000000001</v>
+      </c>
+      <c r="Q64">
+        <v>-40.148000000000003</v>
+      </c>
+      <c r="R64">
+        <v>42613</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1987.402</v>
+      </c>
+      <c r="U64">
+        <v>99.209000000000003</v>
+      </c>
+      <c r="V64">
+        <v>157.58799999999999</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-97.028000000000006</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-10.117000000000001</v>
+      </c>
+      <c r="AA64">
+        <v>138.09100000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1271.077</v>
+      </c>
+      <c r="E65">
+        <v>607.452</v>
+      </c>
+      <c r="F65">
+        <v>565.21799999999996</v>
+      </c>
+      <c r="G65">
+        <v>1600.662</v>
+      </c>
+      <c r="H65">
+        <v>4214.5789999999997</v>
+      </c>
+      <c r="I65">
+        <v>127.815</v>
+      </c>
+      <c r="J65">
+        <v>1044.8340000000001</v>
+      </c>
+      <c r="K65">
+        <v>66</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>748.75699999999995</v>
+      </c>
+      <c r="O65">
+        <v>2188.8739999999998</v>
+      </c>
+      <c r="P65">
+        <v>1110.8340000000001</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>42704</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2025.7049999999999</v>
+      </c>
+      <c r="U65">
+        <v>143.57300000000001</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>140.37700000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>118.005</v>
+      </c>
+      <c r="D66">
+        <v>1255.367</v>
+      </c>
+      <c r="E66">
+        <v>598.86300000000006</v>
+      </c>
+      <c r="F66">
+        <v>559.92399999999998</v>
+      </c>
+      <c r="G66">
+        <v>1629.941</v>
+      </c>
+      <c r="H66">
+        <v>4271.1639999999998</v>
+      </c>
+      <c r="I66">
+        <v>127.94</v>
+      </c>
+      <c r="J66">
+        <v>745.18899999999996</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>943.96799999999996</v>
+      </c>
+      <c r="O66">
+        <v>2092.9059999999999</v>
+      </c>
+      <c r="P66">
+        <v>1144.54</v>
+      </c>
+      <c r="Q66">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="R66">
+        <v>42794</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>2178.2579999999998</v>
+      </c>
+      <c r="U66">
+        <v>147.244</v>
+      </c>
+      <c r="V66">
+        <v>182.03700000000001</v>
+      </c>
+      <c r="W66">
+        <v>-142.44399999999999</v>
+      </c>
+      <c r="X66">
+        <v>-104.562</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-7.8259999999999996</v>
+      </c>
+      <c r="AA66">
+        <v>118.005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>84.234999999999999</v>
+      </c>
+      <c r="D67">
+        <v>1530.287</v>
+      </c>
+      <c r="E67">
+        <v>736.00800000000004</v>
+      </c>
+      <c r="F67">
+        <v>678.726</v>
+      </c>
+      <c r="G67">
+        <v>1954.4780000000001</v>
+      </c>
+      <c r="H67">
+        <v>6844.0569999999998</v>
+      </c>
+      <c r="I67">
+        <v>177.05099999999999</v>
+      </c>
+      <c r="J67">
+        <v>2770.6239999999998</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1130.8520000000001</v>
+      </c>
+      <c r="O67">
+        <v>4541.2640000000001</v>
+      </c>
+      <c r="P67">
+        <v>3133.5239999999999</v>
+      </c>
+      <c r="Q67">
+        <v>22.021999999999998</v>
+      </c>
+      <c r="R67">
+        <v>42886</v>
+      </c>
+      <c r="S67">
+        <v>42000</v>
+      </c>
+      <c r="T67">
+        <v>2302.7930000000001</v>
+      </c>
+      <c r="U67">
+        <v>169.26599999999999</v>
+      </c>
+      <c r="V67">
+        <v>280.12900000000002</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>1886.136</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-9.6129999999999995</v>
+      </c>
+      <c r="AA67">
+        <v>84.234999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>217.21100000000001</v>
+      </c>
+      <c r="D68">
+        <v>1611.5029999999999</v>
+      </c>
+      <c r="E68">
+        <v>731.577</v>
+      </c>
+      <c r="F68">
+        <v>739.35299999999995</v>
+      </c>
+      <c r="G68">
+        <v>1924.5530000000001</v>
+      </c>
+      <c r="H68">
+        <v>6851.6059999999998</v>
+      </c>
+      <c r="I68">
+        <v>189.571</v>
+      </c>
+      <c r="J68">
+        <v>2533.672</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>-43</v>
+      </c>
+      <c r="M68">
+        <v>-250</v>
+      </c>
+      <c r="N68">
+        <v>1044.7950000000001</v>
+      </c>
+      <c r="O68">
+        <v>4285.7250000000004</v>
+      </c>
+      <c r="P68">
+        <v>2841.1219999999998</v>
+      </c>
+      <c r="Q68">
+        <v>22.148</v>
+      </c>
+      <c r="R68">
+        <v>42978</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2565.8809999999999</v>
+      </c>
+      <c r="U68">
+        <v>191.41399999999999</v>
+      </c>
+      <c r="V68">
+        <v>254.36600000000001</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-311.43299999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>7.234</v>
+      </c>
+      <c r="AA68">
+        <v>217.21100000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>137.10900000000001</v>
+      </c>
+      <c r="D69">
+        <v>1606.441</v>
+      </c>
+      <c r="E69">
+        <v>763.55499999999995</v>
+      </c>
+      <c r="F69">
+        <v>716.36900000000003</v>
+      </c>
+      <c r="G69">
+        <v>2043.4490000000001</v>
+      </c>
+      <c r="H69">
+        <v>6978.8010000000004</v>
+      </c>
+      <c r="I69">
+        <v>162.98099999999999</v>
+      </c>
+      <c r="J69">
+        <v>2534.2220000000002</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1154.3710000000001</v>
+      </c>
+      <c r="O69">
+        <v>4425.768</v>
+      </c>
+      <c r="P69">
+        <v>2834.2220000000002</v>
+      </c>
+      <c r="Q69">
+        <v>44.588000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43069</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2553.0329999999999</v>
+      </c>
+      <c r="U69">
+        <v>236.00200000000001</v>
+      </c>
+      <c r="V69">
+        <v>124.643</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-6.8520000000000003</v>
+      </c>
+      <c r="AA69">
+        <v>137.10900000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>302.09500000000003</v>
+      </c>
+      <c r="D70">
+        <v>1589.1379999999999</v>
+      </c>
+      <c r="E70">
+        <v>779.22</v>
+      </c>
+      <c r="F70">
+        <v>700.46299999999997</v>
+      </c>
+      <c r="G70">
+        <v>1979.576</v>
+      </c>
+      <c r="H70">
+        <v>6928.5929999999998</v>
+      </c>
+      <c r="I70">
+        <v>172.18100000000001</v>
+      </c>
+      <c r="J70">
+        <v>2534.7600000000002</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>917.57299999999998</v>
+      </c>
+      <c r="O70">
+        <v>4034.596</v>
+      </c>
+      <c r="P70">
+        <v>2722.26</v>
+      </c>
+      <c r="Q70">
+        <v>-83.438999999999993</v>
+      </c>
+      <c r="R70">
+        <v>43159</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>2893.9969999999998</v>
+      </c>
+      <c r="U70">
+        <v>152.56299999999999</v>
+      </c>
+      <c r="V70">
+        <v>281.85500000000002</v>
+      </c>
+      <c r="W70">
+        <v>-175.589</v>
+      </c>
+      <c r="X70">
+        <v>-282.76900000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-11.608000000000001</v>
+      </c>
+      <c r="AA70">
+        <v>302.09500000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>186.17099999999999</v>
+      </c>
+      <c r="D71">
+        <v>1669.55</v>
+      </c>
+      <c r="E71">
+        <v>804.58299999999997</v>
+      </c>
+      <c r="F71">
+        <v>752.33799999999997</v>
+      </c>
+      <c r="G71">
+        <v>1977.932</v>
+      </c>
+      <c r="H71">
+        <v>6958.2139999999999</v>
+      </c>
+      <c r="I71">
+        <v>215.07400000000001</v>
+      </c>
+      <c r="J71">
+        <v>2535.3090000000002</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>775.85699999999997</v>
+      </c>
+      <c r="O71">
+        <v>3941.6880000000001</v>
+      </c>
+      <c r="P71">
+        <v>2535.3090000000002</v>
+      </c>
+      <c r="Q71">
+        <v>-13.839</v>
+      </c>
+      <c r="R71">
+        <v>43251</v>
+      </c>
+      <c r="S71">
+        <v>41000</v>
+      </c>
+      <c r="T71">
+        <v>3016.5259999999998</v>
+      </c>
+      <c r="U71">
+        <v>138.72399999999999</v>
+      </c>
+      <c r="V71">
+        <v>303.29599999999999</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-271.85000000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>37.375</v>
+      </c>
+      <c r="AA71">
+        <v>186.17099999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>212.51499999999999</v>
+      </c>
+      <c r="D72">
+        <v>1697.9749999999999</v>
+      </c>
+      <c r="E72">
+        <v>838.19200000000001</v>
+      </c>
+      <c r="F72">
+        <v>774.71199999999999</v>
+      </c>
+      <c r="G72">
+        <v>2104.3780000000002</v>
+      </c>
+      <c r="H72">
+        <v>7287.2039999999997</v>
+      </c>
+      <c r="I72">
+        <v>214.011</v>
+      </c>
+      <c r="J72">
+        <v>2535.8589999999999</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>679.09400000000005</v>
+      </c>
+      <c r="O72">
+        <v>3941.2359999999999</v>
+      </c>
+      <c r="P72">
+        <v>2540.0279999999998</v>
+      </c>
+      <c r="Q72">
+        <v>-20.367999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43343</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3345.9679999999998</v>
+      </c>
+      <c r="U72">
+        <v>118.35599999999999</v>
+      </c>
+      <c r="V72">
+        <v>162.98500000000001</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-112.508</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>212.51499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>243.01300000000001</v>
+      </c>
+      <c r="D73">
+        <v>1718.268</v>
+      </c>
+      <c r="E73">
+        <v>904.06200000000001</v>
+      </c>
+      <c r="F73">
+        <v>775.15800000000002</v>
+      </c>
+      <c r="G73">
+        <v>2215.87</v>
+      </c>
+      <c r="H73">
+        <v>7405.0829999999996</v>
+      </c>
+      <c r="I73">
+        <v>211.9</v>
+      </c>
+      <c r="J73">
+        <v>2536.4079999999999</v>
+      </c>
+      <c r="K73">
+        <v>173.5</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1114.6859999999999</v>
+      </c>
+      <c r="O73">
+        <v>4377.8389999999999</v>
+      </c>
+      <c r="P73">
+        <v>2709.9079999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-29.876999999999999</v>
+      </c>
+      <c r="R73">
+        <v>43434</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3027.2440000000001</v>
+      </c>
+      <c r="U73">
+        <v>88.478999999999999</v>
+      </c>
+      <c r="V73">
+        <v>181.58199999999999</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-194.87100000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>57.713000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>243.01300000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1682.33</v>
+      </c>
+      <c r="E74">
+        <v>878.03700000000003</v>
+      </c>
+      <c r="F74">
+        <v>755.15300000000002</v>
+      </c>
+      <c r="G74">
+        <v>2223.7559999999999</v>
+      </c>
+      <c r="H74">
+        <v>7433.6729999999998</v>
+      </c>
+      <c r="I74">
+        <v>214.56700000000001</v>
+      </c>
+      <c r="J74">
+        <v>2536.9580000000001</v>
+      </c>
+      <c r="K74">
+        <v>217.5</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>994.351</v>
+      </c>
+      <c r="O74">
+        <v>4254.1809999999996</v>
+      </c>
+      <c r="P74">
+        <v>2762.9180000000001</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>43524</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>3179.4920000000002</v>
+      </c>
+      <c r="U74">
+        <v>80.858999999999995</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>203.334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>226.119</v>
+      </c>
+      <c r="D75">
+        <v>1793.73</v>
+      </c>
+      <c r="E75">
+        <v>910.12</v>
+      </c>
+      <c r="F75">
+        <v>823.56500000000005</v>
+      </c>
+      <c r="G75">
+        <v>2236.2800000000002</v>
+      </c>
+      <c r="H75">
+        <v>7436.6620000000003</v>
+      </c>
+      <c r="I75">
+        <v>226.02</v>
+      </c>
+      <c r="J75">
+        <v>2573.9</v>
+      </c>
+      <c r="K75">
+        <v>312.26400000000001</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1127.7329999999999</v>
+      </c>
+      <c r="O75">
+        <v>4433.9409999999998</v>
+      </c>
+      <c r="P75">
+        <v>2886.1640000000002</v>
+      </c>
+      <c r="Q75">
+        <v>15.786</v>
+      </c>
+      <c r="R75">
+        <v>43616</v>
+      </c>
+      <c r="S75">
+        <v>45000</v>
+      </c>
+      <c r="T75">
+        <v>3002.721</v>
+      </c>
+      <c r="U75">
+        <v>96.644999999999996</v>
+      </c>
+      <c r="V75">
+        <v>397.14499999999998</v>
+      </c>
+      <c r="W75">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="X75">
+        <v>-308.00700000000001</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-0.29699999999999999</v>
+      </c>
+      <c r="AA75">
+        <v>226.119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>250.81200000000001</v>
+      </c>
+      <c r="D76">
+        <v>1811.1389999999999</v>
+      </c>
+      <c r="E76">
+        <v>917.53499999999997</v>
+      </c>
+      <c r="F76">
+        <v>849.14200000000005</v>
+      </c>
+      <c r="G76">
+        <v>2289.8180000000002</v>
+      </c>
+      <c r="H76">
+        <v>7661.9</v>
+      </c>
+      <c r="I76">
+        <v>237.24199999999999</v>
+      </c>
+      <c r="J76">
+        <v>2538.0569999999998</v>
+      </c>
+      <c r="K76">
+        <v>338.77600000000001</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1122.8820000000001</v>
+      </c>
+      <c r="O76">
+        <v>4611.1940000000004</v>
+      </c>
+      <c r="P76">
+        <v>3045.527</v>
+      </c>
+      <c r="Q76">
+        <v>5.4859999999999998</v>
+      </c>
+      <c r="R76">
+        <v>43708</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3050.7060000000001</v>
+      </c>
+      <c r="U76">
+        <v>102.131</v>
+      </c>
+      <c r="V76">
+        <v>276.90100000000001</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-193.607</v>
+      </c>
+      <c r="Y76">
+        <v>125.684</v>
+      </c>
+      <c r="Z76">
+        <v>-9.391</v>
+      </c>
+      <c r="AA76">
+        <v>250.81200000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>246.12</v>
+      </c>
+      <c r="D77">
+        <v>1843.749</v>
+      </c>
+      <c r="E77">
+        <v>949.12199999999996</v>
+      </c>
+      <c r="F77">
+        <v>852.39099999999996</v>
+      </c>
+      <c r="G77">
+        <v>2490.2869999999998</v>
+      </c>
+      <c r="H77">
+        <v>7887.3370000000004</v>
+      </c>
+      <c r="I77">
+        <v>254.61099999999999</v>
+      </c>
+      <c r="J77">
+        <v>2538.6060000000002</v>
+      </c>
+      <c r="K77">
+        <v>199.78800000000001</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1297.251</v>
+      </c>
+      <c r="O77">
+        <v>4782.3670000000002</v>
+      </c>
+      <c r="P77">
+        <v>2913.2370000000001</v>
+      </c>
+      <c r="Q77">
+        <v>124.404</v>
+      </c>
+      <c r="R77">
+        <v>43799</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3104.97</v>
+      </c>
+      <c r="U77">
+        <v>226.535</v>
+      </c>
+      <c r="V77">
+        <v>294.45</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-116.38500000000001</v>
+      </c>
+      <c r="Y77">
+        <v>130.58000000000001</v>
+      </c>
+      <c r="Z77">
+        <v>-0.73</v>
+      </c>
+      <c r="AA77">
+        <v>246.12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>234.52</v>
+      </c>
+      <c r="D78">
+        <v>1810.6479999999999</v>
+      </c>
+      <c r="E78">
+        <v>942.85299999999995</v>
+      </c>
+      <c r="F78">
+        <v>824.39499999999998</v>
+      </c>
+      <c r="G78">
+        <v>2497.7060000000001</v>
+      </c>
+      <c r="H78">
+        <v>7901.98</v>
+      </c>
+      <c r="I78">
+        <v>243.24799999999999</v>
+      </c>
+      <c r="J78">
+        <v>2656.0650000000001</v>
+      </c>
+      <c r="K78">
+        <v>199.8</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1066.646</v>
+      </c>
+      <c r="O78">
+        <v>4577.6710000000003</v>
+      </c>
+      <c r="P78">
+        <v>3026.902</v>
+      </c>
+      <c r="Q78">
+        <v>7.9059999999999997</v>
+      </c>
+      <c r="R78">
+        <v>43890</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>3324.3090000000002</v>
+      </c>
+      <c r="U78">
+        <v>234.441</v>
+      </c>
+      <c r="V78">
+        <v>363.19799999999998</v>
+      </c>
+      <c r="W78">
+        <v>-268.04199999999997</v>
+      </c>
+      <c r="X78">
+        <v>-250.3</v>
+      </c>
+      <c r="Y78">
+        <v>126.994</v>
+      </c>
+      <c r="Z78">
+        <v>-0.34</v>
+      </c>
+      <c r="AA78">
+        <v>234.52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>144.58500000000001</v>
+      </c>
+      <c r="D79">
+        <v>1619.5840000000001</v>
+      </c>
+      <c r="E79">
+        <v>870.36900000000003</v>
+      </c>
+      <c r="F79">
+        <v>707.82</v>
+      </c>
+      <c r="G79">
+        <v>2309.6990000000001</v>
+      </c>
+      <c r="H79">
+        <v>7669.8850000000002</v>
+      </c>
+      <c r="I79">
+        <v>230.995</v>
+      </c>
+      <c r="J79">
+        <v>2705.3910000000001</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>885.19500000000005</v>
+      </c>
+      <c r="O79">
+        <v>4434.683</v>
+      </c>
+      <c r="P79">
+        <v>2871.1170000000002</v>
+      </c>
+      <c r="Q79">
+        <v>-89.039000000000001</v>
+      </c>
+      <c r="R79">
+        <v>43982</v>
+      </c>
+      <c r="S79">
+        <v>40000</v>
+      </c>
+      <c r="T79">
+        <v>3235.2020000000002</v>
+      </c>
+      <c r="U79">
+        <v>145.40199999999999</v>
+      </c>
+      <c r="V79">
+        <v>356.93400000000003</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-394.91500000000002</v>
+      </c>
+      <c r="Y79">
+        <v>122.69499999999999</v>
+      </c>
+      <c r="Z79">
+        <v>0.43</v>
+      </c>
+      <c r="AA79">
+        <v>144.58500000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>300.005</v>
+      </c>
+      <c r="D80">
+        <v>1746.575</v>
+      </c>
+      <c r="E80">
+        <v>866.41399999999999</v>
+      </c>
+      <c r="F80">
+        <v>826.20100000000002</v>
+      </c>
+      <c r="G80">
+        <v>2666.1770000000001</v>
+      </c>
+      <c r="H80">
+        <v>8043.3810000000003</v>
+      </c>
+      <c r="I80">
+        <v>252.51300000000001</v>
+      </c>
+      <c r="J80">
+        <v>2446.498</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1093.3499999999999</v>
+      </c>
+      <c r="O80">
+        <v>4438.5770000000002</v>
+      </c>
+      <c r="P80">
+        <v>2861.4470000000001</v>
+      </c>
+      <c r="Q80">
+        <v>276.14</v>
+      </c>
+      <c r="R80">
+        <v>44074</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3604.8040000000001</v>
+      </c>
+      <c r="U80">
+        <v>421.54199999999997</v>
+      </c>
+      <c r="V80">
+        <v>312.29199999999997</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>2.2429999999999999</v>
+      </c>
+      <c r="Y80">
+        <v>121.727</v>
+      </c>
+      <c r="Z80">
+        <v>-4.9400000000000004</v>
+      </c>
+      <c r="AA80">
+        <v>300.005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>284.85700000000003</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>1757.048</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>910.26599999999996</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>819.88400000000001</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>3102.7730000000001</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>8454.7530000000006</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>274.02100000000002</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>2429.0500000000002</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>1508.472</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>4856.7929999999997</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>2839.098</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>281.63299999999998</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44165</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <v>3597.96</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>703.17499999999995</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>260.67200000000003</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
         <v>32.218000000000004</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>117.494</v>
       </c>
-      <c r="Z42">
+      <c r="Z81">
         <v>-2.2650000000000001</v>
       </c>
-      <c r="AA42">
+      <c r="AA81">
         <v>284.85700000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>258.38400000000001</v>
+      </c>
+      <c r="D82">
+        <v>1777.056</v>
+      </c>
+      <c r="E82">
+        <v>929.49199999999996</v>
+      </c>
+      <c r="F82">
+        <v>809.51599999999996</v>
+      </c>
+      <c r="G82">
+        <v>2978.556</v>
+      </c>
+      <c r="H82">
+        <v>8347.4969999999994</v>
+      </c>
+      <c r="I82">
+        <v>237.857</v>
+      </c>
+      <c r="J82">
+        <v>2291.4180000000001</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1270.3599999999999</v>
+      </c>
+      <c r="O82">
+        <v>4530.9870000000001</v>
+      </c>
+      <c r="P82">
+        <v>2704.192</v>
+      </c>
+      <c r="Q82">
+        <v>-149.56399999999999</v>
+      </c>
+      <c r="R82">
+        <v>44255</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>3816.51</v>
+      </c>
+      <c r="U82">
+        <v>553.61099999999999</v>
+      </c>
+      <c r="V82">
+        <v>331.851</v>
+      </c>
+      <c r="W82">
+        <v>-371.81799999999998</v>
+      </c>
+      <c r="X82">
+        <v>-444.55599999999998</v>
+      </c>
+      <c r="Y82">
+        <v>119.071</v>
+      </c>
+      <c r="Z82">
+        <v>-0.66800000000000004</v>
+      </c>
+      <c r="AA82">
+        <v>258.38400000000001</v>
       </c>
     </row>
   </sheetData>
